--- a/database/industries/biscuit/ghesalem/cost/quarterly.xlsx
+++ b/database/industries/biscuit/ghesalem/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghesalem\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\biscuit\ghesalem\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA04C112-67F6-4129-B73E-75B386E5A718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B907E2E8-734E-4253-94AA-76ED3958341B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7176" yWindow="5148" windowWidth="13800" windowHeight="7092" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="93">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>بهای تمام شده</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1399/09</t>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -758,12 +758,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -778,7 +778,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -795,7 +795,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -812,7 +812,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -827,7 +827,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -844,7 +844,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -861,7 +861,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -876,7 +876,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -913,7 +913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -928,229 +928,229 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>449772</v>
+        <v>546660</v>
       </c>
       <c r="F10" s="9">
-        <v>546660</v>
+        <v>719187</v>
       </c>
       <c r="G10" s="9">
-        <v>719187</v>
+        <v>595925</v>
       </c>
       <c r="H10" s="9">
-        <v>595925</v>
+        <v>794621</v>
       </c>
       <c r="I10" s="9">
-        <v>794621</v>
+        <v>1066500</v>
       </c>
       <c r="J10" s="9">
-        <v>1066500</v>
+        <v>971420</v>
       </c>
       <c r="K10" s="9">
-        <v>971420</v>
+        <v>1277603</v>
       </c>
       <c r="L10" s="9">
-        <v>1277603</v>
+        <v>1600096</v>
       </c>
       <c r="M10" s="9">
-        <v>1600096</v>
+        <v>2021584</v>
       </c>
       <c r="N10" s="9">
-        <v>2021584</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1785497</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>87213</v>
+        <v>78924</v>
       </c>
       <c r="F11" s="11">
-        <v>78924</v>
+        <v>100172</v>
       </c>
       <c r="G11" s="11">
-        <v>100172</v>
+        <v>115614</v>
       </c>
       <c r="H11" s="11">
-        <v>115614</v>
+        <v>132680</v>
       </c>
       <c r="I11" s="11">
-        <v>132680</v>
+        <v>173994</v>
       </c>
       <c r="J11" s="11">
-        <v>173994</v>
+        <v>189903</v>
       </c>
       <c r="K11" s="11">
-        <v>189903</v>
+        <v>243351</v>
       </c>
       <c r="L11" s="11">
-        <v>243351</v>
+        <v>275936</v>
       </c>
       <c r="M11" s="11">
-        <v>275936</v>
+        <v>266969</v>
       </c>
       <c r="N11" s="11">
-        <v>266969</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>275453</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>120810</v>
+        <v>107110</v>
       </c>
       <c r="F12" s="9">
-        <v>107110</v>
+        <v>127850</v>
       </c>
       <c r="G12" s="9">
-        <v>127850</v>
+        <v>143733</v>
       </c>
       <c r="H12" s="9">
-        <v>143733</v>
+        <v>150162</v>
       </c>
       <c r="I12" s="9">
-        <v>150162</v>
+        <v>202444</v>
       </c>
       <c r="J12" s="9">
-        <v>202444</v>
+        <v>186876</v>
       </c>
       <c r="K12" s="9">
-        <v>186876</v>
+        <v>208060</v>
       </c>
       <c r="L12" s="9">
-        <v>208060</v>
+        <v>241682</v>
       </c>
       <c r="M12" s="9">
-        <v>241682</v>
+        <v>238736</v>
       </c>
       <c r="N12" s="9">
-        <v>238736</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>260079</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>657795</v>
+        <v>732694</v>
       </c>
       <c r="F13" s="13">
-        <v>732694</v>
+        <v>947209</v>
       </c>
       <c r="G13" s="13">
-        <v>947209</v>
+        <v>855272</v>
       </c>
       <c r="H13" s="13">
-        <v>855272</v>
+        <v>1077463</v>
       </c>
       <c r="I13" s="13">
-        <v>1077463</v>
+        <v>1442938</v>
       </c>
       <c r="J13" s="13">
-        <v>1442938</v>
+        <v>1348199</v>
       </c>
       <c r="K13" s="13">
-        <v>1348199</v>
+        <v>1729014</v>
       </c>
       <c r="L13" s="13">
-        <v>1729014</v>
+        <v>2117714</v>
       </c>
       <c r="M13" s="13">
-        <v>2117714</v>
+        <v>2527289</v>
       </c>
       <c r="N13" s="13">
-        <v>2527289</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2321029</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>-8891</v>
+        <v>-11562</v>
       </c>
       <c r="F14" s="9">
-        <v>-11562</v>
+        <v>-8695</v>
       </c>
       <c r="G14" s="9">
-        <v>-8695</v>
+        <v>-11611</v>
       </c>
       <c r="H14" s="9">
-        <v>-11611</v>
+        <v>-10000</v>
       </c>
       <c r="I14" s="9">
-        <v>-10000</v>
+        <v>-12528</v>
       </c>
       <c r="J14" s="9">
-        <v>-12528</v>
+        <v>-6933</v>
       </c>
       <c r="K14" s="9">
-        <v>-6933</v>
+        <v>-11644</v>
       </c>
       <c r="L14" s="9">
-        <v>-11644</v>
+        <v>-11231</v>
       </c>
       <c r="M14" s="9">
-        <v>-11231</v>
+        <v>-10263</v>
       </c>
       <c r="N14" s="9">
-        <v>-10263</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-12049</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>648904</v>
+        <v>721132</v>
       </c>
       <c r="F15" s="13">
-        <v>721132</v>
+        <v>938514</v>
       </c>
       <c r="G15" s="13">
-        <v>938514</v>
+        <v>843661</v>
       </c>
       <c r="H15" s="13">
-        <v>843661</v>
+        <v>1067463</v>
       </c>
       <c r="I15" s="13">
-        <v>1067463</v>
+        <v>1430410</v>
       </c>
       <c r="J15" s="13">
-        <v>1430410</v>
+        <v>1341266</v>
       </c>
       <c r="K15" s="13">
-        <v>1341266</v>
+        <v>1717370</v>
       </c>
       <c r="L15" s="13">
-        <v>1717370</v>
+        <v>2106483</v>
       </c>
       <c r="M15" s="13">
-        <v>2106483</v>
+        <v>2517026</v>
       </c>
       <c r="N15" s="13">
-        <v>2517026</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2308980</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
@@ -1187,81 +1187,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>-260</v>
+        <v>-693</v>
       </c>
       <c r="F17" s="11">
-        <v>-693</v>
+        <v>-925</v>
       </c>
       <c r="G17" s="11">
-        <v>-925</v>
+        <v>-409</v>
       </c>
       <c r="H17" s="11">
-        <v>-409</v>
+        <v>-773</v>
       </c>
       <c r="I17" s="11">
-        <v>-773</v>
+        <v>-1134</v>
       </c>
       <c r="J17" s="11">
-        <v>-1134</v>
+        <v>-1515</v>
       </c>
       <c r="K17" s="11">
-        <v>-1515</v>
+        <v>-601</v>
       </c>
       <c r="L17" s="11">
-        <v>-601</v>
+        <v>-1659</v>
       </c>
       <c r="M17" s="11">
-        <v>-1659</v>
+        <v>-2778</v>
       </c>
       <c r="N17" s="11">
-        <v>-2778</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2334</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>648644</v>
+        <v>720439</v>
       </c>
       <c r="F18" s="15">
-        <v>720439</v>
+        <v>937589</v>
       </c>
       <c r="G18" s="15">
-        <v>937589</v>
+        <v>843252</v>
       </c>
       <c r="H18" s="15">
-        <v>843252</v>
+        <v>1066690</v>
       </c>
       <c r="I18" s="15">
-        <v>1066690</v>
+        <v>1429276</v>
       </c>
       <c r="J18" s="15">
-        <v>1429276</v>
+        <v>1339751</v>
       </c>
       <c r="K18" s="15">
-        <v>1339751</v>
+        <v>1716769</v>
       </c>
       <c r="L18" s="15">
-        <v>1716769</v>
+        <v>2104824</v>
       </c>
       <c r="M18" s="15">
-        <v>2104824</v>
+        <v>2514248</v>
       </c>
       <c r="N18" s="15">
-        <v>2514248</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2306646</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
@@ -1271,108 +1271,108 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>21365</v>
       </c>
       <c r="G19" s="11">
-        <v>0</v>
+        <v>32987</v>
       </c>
       <c r="H19" s="11">
-        <v>32987</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <v>0</v>
       </c>
       <c r="J19" s="11">
-        <v>0</v>
+        <v>66839</v>
       </c>
       <c r="K19" s="11">
-        <v>28639</v>
+        <v>48464</v>
       </c>
       <c r="L19" s="11">
-        <v>48464</v>
+        <v>148269</v>
       </c>
       <c r="M19" s="11">
-        <v>148269</v>
+        <v>116243</v>
       </c>
       <c r="N19" s="11">
-        <v>116243</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>135686</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>4806</v>
+        <v>-3259</v>
       </c>
       <c r="F20" s="9">
-        <v>-3259</v>
+        <v>-32987</v>
       </c>
       <c r="G20" s="9">
-        <v>-11622</v>
+        <v>-35848</v>
       </c>
       <c r="H20" s="9">
-        <v>-35848</v>
+        <v>-2352</v>
       </c>
       <c r="I20" s="9">
-        <v>-2352</v>
+        <v>-28639</v>
       </c>
       <c r="J20" s="9">
-        <v>-28639</v>
+        <v>-48464</v>
       </c>
       <c r="K20" s="9">
-        <v>-48464</v>
+        <v>-148269</v>
       </c>
       <c r="L20" s="9">
-        <v>-148269</v>
+        <v>-116243</v>
       </c>
       <c r="M20" s="9">
-        <v>-116243</v>
+        <v>-135686</v>
       </c>
       <c r="N20" s="9">
-        <v>-135686</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-154539</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>653450</v>
+        <v>717180</v>
       </c>
       <c r="F21" s="13">
-        <v>717180</v>
+        <v>925967</v>
       </c>
       <c r="G21" s="13">
-        <v>925967</v>
+        <v>840391</v>
       </c>
       <c r="H21" s="13">
-        <v>840391</v>
+        <v>1064338</v>
       </c>
       <c r="I21" s="13">
-        <v>1064338</v>
+        <v>1400637</v>
       </c>
       <c r="J21" s="13">
-        <v>1400637</v>
+        <v>1358126</v>
       </c>
       <c r="K21" s="13">
-        <v>1358126</v>
+        <v>1616964</v>
       </c>
       <c r="L21" s="13">
-        <v>1616964</v>
+        <v>2136850</v>
       </c>
       <c r="M21" s="13">
-        <v>2136850</v>
+        <v>2494805</v>
       </c>
       <c r="N21" s="13">
-        <v>2494805</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2287793</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
@@ -1409,44 +1409,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>653450</v>
+        <v>717180</v>
       </c>
       <c r="F23" s="13">
-        <v>717180</v>
+        <v>925967</v>
       </c>
       <c r="G23" s="13">
-        <v>925967</v>
+        <v>840391</v>
       </c>
       <c r="H23" s="13">
-        <v>840391</v>
+        <v>1064338</v>
       </c>
       <c r="I23" s="13">
-        <v>1064338</v>
+        <v>1400637</v>
       </c>
       <c r="J23" s="13">
-        <v>1400637</v>
+        <v>1358126</v>
       </c>
       <c r="K23" s="13">
-        <v>1358126</v>
+        <v>1616964</v>
       </c>
       <c r="L23" s="13">
-        <v>1616964</v>
+        <v>2136850</v>
       </c>
       <c r="M23" s="13">
-        <v>2136850</v>
+        <v>2494805</v>
       </c>
       <c r="N23" s="13">
-        <v>2494805</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2287793</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1461,7 +1461,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1476,7 +1476,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1491,7 +1491,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1543,7 +1543,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
@@ -1575,14 +1575,14 @@
       <c r="L29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M29" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N29" s="9">
+      <c r="M29" s="9">
         <v>88</v>
       </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N29" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
@@ -1596,32 +1596,32 @@
       <c r="F30" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G30" s="11" t="s">
-        <v>31</v>
+      <c r="G30" s="11">
+        <v>98</v>
       </c>
       <c r="H30" s="11">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="I30" s="11">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="J30" s="11">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="K30" s="11">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="L30" s="11">
-        <v>14</v>
+        <v>1054</v>
       </c>
       <c r="M30" s="11">
-        <v>1054</v>
-      </c>
-      <c r="N30" s="11">
         <v>947</v>
       </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N30" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>33</v>
       </c>
@@ -1630,37 +1630,37 @@
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="F31" s="9">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="G31" s="9">
-        <v>17</v>
+        <v>284</v>
       </c>
       <c r="H31" s="9">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="I31" s="9">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="J31" s="9">
-        <v>239</v>
+        <v>51</v>
       </c>
       <c r="K31" s="9">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="L31" s="9">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="M31" s="9">
-        <v>1</v>
-      </c>
-      <c r="N31" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>34</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>35</v>
       </c>
@@ -1708,25 +1708,25 @@
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F33" s="9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G33" s="9">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H33" s="9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I33" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J33" s="9">
-        <v>2</v>
-      </c>
-      <c r="K33" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="L33" s="9" t="s">
         <v>31</v>
@@ -1738,7 +1738,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>36</v>
       </c>
@@ -1747,37 +1747,37 @@
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F34" s="11">
         <v>115</v>
       </c>
       <c r="G34" s="11">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="H34" s="11">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="I34" s="11">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="J34" s="11">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="K34" s="11">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="L34" s="11">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="M34" s="11">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="N34" s="11">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>37</v>
       </c>
@@ -1786,37 +1786,37 @@
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9">
-        <v>124</v>
+        <v>216</v>
       </c>
       <c r="F35" s="9">
-        <v>216</v>
+        <v>23</v>
       </c>
       <c r="G35" s="9">
-        <v>23</v>
+        <v>227</v>
       </c>
       <c r="H35" s="9">
-        <v>227</v>
+        <v>513</v>
       </c>
       <c r="I35" s="9">
-        <v>513</v>
+        <v>643</v>
       </c>
       <c r="J35" s="9">
-        <v>643</v>
+        <v>285</v>
       </c>
       <c r="K35" s="9">
-        <v>285</v>
+        <v>1</v>
       </c>
       <c r="L35" s="9">
-        <v>1</v>
+        <v>679</v>
       </c>
       <c r="M35" s="9">
-        <v>679</v>
+        <v>829</v>
       </c>
       <c r="N35" s="9">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>38</v>
       </c>
@@ -1825,37 +1825,37 @@
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
+        <v>15</v>
+      </c>
+      <c r="F36" s="11">
+        <v>24</v>
+      </c>
+      <c r="G36" s="11">
+        <v>3</v>
+      </c>
+      <c r="H36" s="11">
+        <v>25</v>
+      </c>
+      <c r="I36" s="11">
+        <v>8</v>
+      </c>
+      <c r="J36" s="11">
         <v>20</v>
       </c>
-      <c r="F36" s="11">
-        <v>15</v>
-      </c>
-      <c r="G36" s="11">
-        <v>24</v>
-      </c>
-      <c r="H36" s="11">
-        <v>3</v>
-      </c>
-      <c r="I36" s="11">
+      <c r="K36" s="11">
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
+        <v>8</v>
+      </c>
+      <c r="M36" s="11">
+        <v>37</v>
+      </c>
+      <c r="N36" s="11">
         <v>25</v>
       </c>
-      <c r="J36" s="11">
-        <v>8</v>
-      </c>
-      <c r="K36" s="11">
-        <v>20</v>
-      </c>
-      <c r="L36" s="11">
-        <v>0</v>
-      </c>
-      <c r="M36" s="11">
-        <v>8</v>
-      </c>
-      <c r="N36" s="11">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>39</v>
       </c>
@@ -1864,37 +1864,37 @@
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9">
-        <v>567761</v>
+        <v>595258</v>
       </c>
       <c r="F37" s="9">
-        <v>595258</v>
+        <v>570958</v>
       </c>
       <c r="G37" s="9">
-        <v>570958</v>
+        <v>658492</v>
       </c>
       <c r="H37" s="9">
-        <v>658492</v>
+        <v>736616</v>
       </c>
       <c r="I37" s="9">
-        <v>736616</v>
+        <v>735744</v>
       </c>
       <c r="J37" s="9">
-        <v>735744</v>
+        <v>814776</v>
       </c>
       <c r="K37" s="9">
-        <v>814776</v>
+        <v>779805</v>
       </c>
       <c r="L37" s="9">
-        <v>779805</v>
+        <v>812690</v>
       </c>
       <c r="M37" s="9">
-        <v>812690</v>
+        <v>789652</v>
       </c>
       <c r="N37" s="9">
-        <v>789652</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>773482</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>41</v>
       </c>
@@ -1903,37 +1903,37 @@
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="F38" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G38" s="11">
-        <v>58</v>
+        <v>581</v>
       </c>
       <c r="H38" s="11">
-        <v>581</v>
+        <v>298</v>
       </c>
       <c r="I38" s="11">
-        <v>298</v>
+        <v>1</v>
       </c>
       <c r="J38" s="11">
-        <v>1</v>
+        <v>657</v>
       </c>
       <c r="K38" s="11">
-        <v>657</v>
+        <v>1790</v>
       </c>
       <c r="L38" s="11">
-        <v>1790</v>
+        <v>1308</v>
       </c>
       <c r="M38" s="11">
-        <v>1308</v>
+        <v>784</v>
       </c>
       <c r="N38" s="11">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>42</v>
       </c>
@@ -1942,37 +1942,37 @@
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9">
-        <v>1193</v>
+        <v>3178</v>
       </c>
       <c r="F39" s="9">
-        <v>3178</v>
+        <v>1785</v>
       </c>
       <c r="G39" s="9">
-        <v>1785</v>
+        <v>1519</v>
       </c>
       <c r="H39" s="9">
-        <v>1519</v>
+        <v>770</v>
       </c>
       <c r="I39" s="9">
-        <v>770</v>
+        <v>1168</v>
       </c>
       <c r="J39" s="9">
-        <v>1168</v>
+        <v>470</v>
       </c>
       <c r="K39" s="9">
-        <v>470</v>
+        <v>11</v>
       </c>
       <c r="L39" s="9">
-        <v>11</v>
+        <v>2697</v>
       </c>
       <c r="M39" s="9">
-        <v>2697</v>
+        <v>1253</v>
       </c>
       <c r="N39" s="9">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>43</v>
       </c>
@@ -1981,74 +1981,74 @@
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="F40" s="11">
-        <v>304</v>
+        <v>208</v>
       </c>
       <c r="G40" s="11">
-        <v>208</v>
+        <v>275</v>
       </c>
       <c r="H40" s="11">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="I40" s="11">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J40" s="11">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="K40" s="11">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="L40" s="11">
-        <v>280</v>
+        <v>195</v>
       </c>
       <c r="M40" s="11">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="N40" s="11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15">
-        <v>569743</v>
+        <v>599201</v>
       </c>
       <c r="F41" s="15">
-        <v>599201</v>
+        <v>573198</v>
       </c>
       <c r="G41" s="15">
-        <v>573198</v>
+        <v>661640</v>
       </c>
       <c r="H41" s="15">
-        <v>661640</v>
+        <v>738928</v>
       </c>
       <c r="I41" s="15">
-        <v>738928</v>
+        <v>738373</v>
       </c>
       <c r="J41" s="15">
-        <v>738373</v>
+        <v>816838</v>
       </c>
       <c r="K41" s="15">
-        <v>816838</v>
+        <v>782106</v>
       </c>
       <c r="L41" s="15">
-        <v>782106</v>
+        <v>818813</v>
       </c>
       <c r="M41" s="15">
-        <v>818813</v>
+        <v>793985</v>
       </c>
       <c r="N41" s="15">
-        <v>793985</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+        <v>776440</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -2063,7 +2063,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2078,7 +2078,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -2093,7 +2093,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
         <v>44</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2145,7 +2145,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>29</v>
       </c>
@@ -2177,14 +2177,14 @@
       <c r="L47" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M47" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N47" s="9">
+      <c r="M47" s="9">
         <v>-30</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N47" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>32</v>
       </c>
@@ -2195,35 +2195,35 @@
       <c r="E48" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F48" s="11" t="s">
-        <v>31</v>
+      <c r="F48" s="11">
+        <v>351</v>
       </c>
       <c r="G48" s="11">
-        <v>351</v>
+        <v>0</v>
       </c>
       <c r="H48" s="11">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="I48" s="11">
-        <v>198</v>
+        <v>60</v>
       </c>
       <c r="J48" s="11">
-        <v>60</v>
+        <v>-1</v>
       </c>
       <c r="K48" s="11">
-        <v>-1</v>
+        <v>1122</v>
       </c>
       <c r="L48" s="11">
-        <v>1122</v>
+        <v>-9</v>
       </c>
       <c r="M48" s="11">
-        <v>-9</v>
-      </c>
-      <c r="N48" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="N48" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>33</v>
       </c>
@@ -2235,34 +2235,34 @@
         <v>0</v>
       </c>
       <c r="F49" s="9">
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="G49" s="9">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="H49" s="9">
         <v>0</v>
       </c>
       <c r="I49" s="9">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="J49" s="9">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="K49" s="9">
         <v>0</v>
       </c>
       <c r="L49" s="9">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="M49" s="9">
-        <v>34</v>
-      </c>
-      <c r="N49" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N49" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>34</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>35</v>
       </c>
@@ -2327,8 +2327,8 @@
       <c r="J51" s="9">
         <v>0</v>
       </c>
-      <c r="K51" s="9">
-        <v>0</v>
+      <c r="K51" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="L51" s="9" t="s">
         <v>31</v>
@@ -2340,7 +2340,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>36</v>
       </c>
@@ -2349,37 +2349,37 @@
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F52" s="11">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c r="G52" s="11">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="H52" s="11">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="I52" s="11">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="J52" s="11">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="K52" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L52" s="11">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="M52" s="11">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="N52" s="11">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>37</v>
       </c>
@@ -2388,37 +2388,37 @@
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9">
-        <v>2280</v>
+        <v>1862</v>
       </c>
       <c r="F53" s="9">
-        <v>1862</v>
+        <v>3407</v>
       </c>
       <c r="G53" s="9">
-        <v>3407</v>
+        <v>2572</v>
       </c>
       <c r="H53" s="9">
-        <v>2572</v>
+        <v>2766</v>
       </c>
       <c r="I53" s="9">
-        <v>2766</v>
+        <v>3091</v>
       </c>
       <c r="J53" s="9">
-        <v>3091</v>
+        <v>2446</v>
       </c>
       <c r="K53" s="9">
-        <v>2446</v>
+        <v>3282</v>
       </c>
       <c r="L53" s="9">
-        <v>3282</v>
+        <v>3014</v>
       </c>
       <c r="M53" s="9">
-        <v>3014</v>
+        <v>3043</v>
       </c>
       <c r="N53" s="9">
-        <v>3043</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>38</v>
       </c>
@@ -2427,37 +2427,37 @@
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
-        <v>451</v>
+        <v>527</v>
       </c>
       <c r="F54" s="11">
-        <v>527</v>
+        <v>428</v>
       </c>
       <c r="G54" s="11">
-        <v>428</v>
+        <v>463</v>
       </c>
       <c r="H54" s="11">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="I54" s="11">
-        <v>480</v>
+        <v>582</v>
       </c>
       <c r="J54" s="11">
-        <v>582</v>
+        <v>523</v>
       </c>
       <c r="K54" s="11">
-        <v>523</v>
+        <v>488</v>
       </c>
       <c r="L54" s="11">
-        <v>488</v>
+        <v>564</v>
       </c>
       <c r="M54" s="11">
-        <v>564</v>
+        <v>596</v>
       </c>
       <c r="N54" s="11">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>39</v>
       </c>
@@ -2466,37 +2466,37 @@
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9">
-        <v>2185245</v>
+        <v>2064373</v>
       </c>
       <c r="F55" s="9">
-        <v>2064373</v>
+        <v>2503210</v>
       </c>
       <c r="G55" s="9">
-        <v>2503210</v>
+        <v>2168606</v>
       </c>
       <c r="H55" s="9">
-        <v>2168606</v>
+        <v>2602847</v>
       </c>
       <c r="I55" s="9">
-        <v>2602847</v>
+        <v>2773518</v>
       </c>
       <c r="J55" s="9">
-        <v>2773518</v>
+        <v>2185967</v>
       </c>
       <c r="K55" s="9">
-        <v>2185967</v>
+        <v>2177507</v>
       </c>
       <c r="L55" s="9">
-        <v>2177507</v>
+        <v>2345717</v>
       </c>
       <c r="M55" s="9">
-        <v>2345717</v>
+        <v>2680026</v>
       </c>
       <c r="N55" s="9">
-        <v>2680026</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2475247</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>41</v>
       </c>
@@ -2505,37 +2505,37 @@
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
-        <v>329</v>
+        <v>413</v>
       </c>
       <c r="F56" s="11">
-        <v>413</v>
+        <v>1148</v>
       </c>
       <c r="G56" s="11">
-        <v>1148</v>
+        <v>212</v>
       </c>
       <c r="H56" s="11">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="I56" s="11">
-        <v>182</v>
+        <v>1332</v>
       </c>
       <c r="J56" s="11">
-        <v>1332</v>
+        <v>1622</v>
       </c>
       <c r="K56" s="11">
-        <v>1622</v>
+        <v>85</v>
       </c>
       <c r="L56" s="11">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="M56" s="11">
-        <v>42</v>
+        <v>1052</v>
       </c>
       <c r="N56" s="11">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>42</v>
       </c>
@@ -2544,37 +2544,37 @@
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
-        <v>3162</v>
+        <v>-221</v>
       </c>
       <c r="F57" s="9">
-        <v>-221</v>
+        <v>1220</v>
       </c>
       <c r="G57" s="9">
-        <v>1220</v>
+        <v>389</v>
       </c>
       <c r="H57" s="9">
-        <v>389</v>
+        <v>1715</v>
       </c>
       <c r="I57" s="9">
-        <v>1715</v>
+        <v>888</v>
       </c>
       <c r="J57" s="9">
-        <v>888</v>
+        <v>927</v>
       </c>
       <c r="K57" s="9">
-        <v>927</v>
+        <v>3977</v>
       </c>
       <c r="L57" s="9">
-        <v>3977</v>
+        <v>-1</v>
       </c>
       <c r="M57" s="9">
-        <v>-1</v>
+        <v>1324</v>
       </c>
       <c r="N57" s="9">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>43</v>
       </c>
@@ -2583,74 +2583,74 @@
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>599</v>
+        <v>532</v>
       </c>
       <c r="F58" s="11">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="G58" s="11">
-        <v>525</v>
+        <v>490</v>
       </c>
       <c r="H58" s="11">
-        <v>490</v>
+        <v>578</v>
       </c>
       <c r="I58" s="11">
-        <v>578</v>
+        <v>679</v>
       </c>
       <c r="J58" s="11">
-        <v>679</v>
+        <v>539</v>
       </c>
       <c r="K58" s="11">
-        <v>539</v>
+        <v>479</v>
       </c>
       <c r="L58" s="11">
-        <v>479</v>
+        <v>579</v>
       </c>
       <c r="M58" s="11">
-        <v>579</v>
+        <v>686</v>
       </c>
       <c r="N58" s="11">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
       <c r="E59" s="15">
-        <v>2192210</v>
+        <v>2067634</v>
       </c>
       <c r="F59" s="15">
-        <v>2067634</v>
+        <v>2510779</v>
       </c>
       <c r="G59" s="15">
-        <v>2510779</v>
+        <v>2172862</v>
       </c>
       <c r="H59" s="15">
-        <v>2172862</v>
+        <v>2608937</v>
       </c>
       <c r="I59" s="15">
-        <v>2608937</v>
+        <v>2780421</v>
       </c>
       <c r="J59" s="15">
-        <v>2780421</v>
+        <v>2192181</v>
       </c>
       <c r="K59" s="15">
-        <v>2192181</v>
+        <v>2187097</v>
       </c>
       <c r="L59" s="15">
-        <v>2187097</v>
+        <v>2350105</v>
       </c>
       <c r="M59" s="15">
-        <v>2350105</v>
+        <v>2686986</v>
       </c>
       <c r="N59" s="15">
-        <v>2686986</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2482771</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2665,7 +2665,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2680,7 +2680,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2695,7 +2695,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
         <v>45</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2747,7 +2747,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>29</v>
       </c>
@@ -2779,14 +2779,14 @@
       <c r="L65" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M65" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N65" s="9">
+      <c r="M65" s="9">
         <v>26</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N65" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>32</v>
       </c>
@@ -2797,35 +2797,35 @@
       <c r="E66" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F66" s="11" t="s">
-        <v>31</v>
+      <c r="F66" s="11">
+        <v>300</v>
       </c>
       <c r="G66" s="11">
-        <v>300</v>
+        <v>72</v>
       </c>
       <c r="H66" s="11">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="I66" s="11">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="J66" s="11">
         <v>92</v>
       </c>
       <c r="K66" s="11">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="L66" s="11">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="M66" s="11">
-        <v>98</v>
-      </c>
-      <c r="N66" s="11">
         <v>105</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N66" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>33</v>
       </c>
@@ -2834,37 +2834,37 @@
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9">
+        <v>29</v>
+      </c>
+      <c r="F67" s="9">
         <v>30</v>
       </c>
-      <c r="F67" s="9">
-        <v>29</v>
-      </c>
       <c r="G67" s="9">
+        <v>17</v>
+      </c>
+      <c r="H67" s="9">
+        <v>28</v>
+      </c>
+      <c r="I67" s="9">
+        <v>24</v>
+      </c>
+      <c r="J67" s="9">
+        <v>20</v>
+      </c>
+      <c r="K67" s="9">
         <v>30</v>
       </c>
-      <c r="H67" s="9">
-        <v>17</v>
-      </c>
-      <c r="I67" s="9">
-        <v>28</v>
-      </c>
-      <c r="J67" s="9">
-        <v>24</v>
-      </c>
-      <c r="K67" s="9">
-        <v>20</v>
-      </c>
       <c r="L67" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M67" s="9">
-        <v>35</v>
-      </c>
-      <c r="N67" s="9">
         <v>46</v>
       </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N67" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>34</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>35</v>
       </c>
@@ -2915,22 +2915,22 @@
         <v>2</v>
       </c>
       <c r="F69" s="9">
+        <v>3</v>
+      </c>
+      <c r="G69" s="9">
         <v>2</v>
       </c>
-      <c r="G69" s="9">
+      <c r="H69" s="9">
         <v>3</v>
       </c>
-      <c r="H69" s="9">
+      <c r="I69" s="9">
         <v>2</v>
       </c>
-      <c r="I69" s="9">
-        <v>3</v>
-      </c>
       <c r="J69" s="9">
-        <v>2</v>
-      </c>
-      <c r="K69" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K69" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="L69" s="9" t="s">
         <v>31</v>
@@ -2942,7 +2942,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>36</v>
       </c>
@@ -2954,34 +2954,34 @@
         <v>148</v>
       </c>
       <c r="F70" s="11">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="G70" s="11">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="H70" s="11">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="I70" s="11">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="J70" s="11">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="K70" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L70" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M70" s="11">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="N70" s="11">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>37</v>
       </c>
@@ -2990,37 +2990,37 @@
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9">
-        <v>2188</v>
+        <v>2055</v>
       </c>
       <c r="F71" s="9">
-        <v>2055</v>
+        <v>3203</v>
       </c>
       <c r="G71" s="9">
-        <v>3203</v>
+        <v>2286</v>
       </c>
       <c r="H71" s="9">
-        <v>2286</v>
+        <v>2636</v>
       </c>
       <c r="I71" s="9">
-        <v>2636</v>
+        <v>3449</v>
       </c>
       <c r="J71" s="9">
-        <v>3449</v>
+        <v>2730</v>
       </c>
       <c r="K71" s="9">
-        <v>2730</v>
+        <v>2604</v>
       </c>
       <c r="L71" s="9">
-        <v>2604</v>
+        <v>2864</v>
       </c>
       <c r="M71" s="9">
-        <v>2864</v>
+        <v>3422</v>
       </c>
       <c r="N71" s="9">
-        <v>3422</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>38</v>
       </c>
@@ -3029,37 +3029,37 @@
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
-        <v>456</v>
+        <v>518</v>
       </c>
       <c r="F72" s="11">
-        <v>518</v>
+        <v>449</v>
       </c>
       <c r="G72" s="11">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="H72" s="11">
-        <v>441</v>
+        <v>497</v>
       </c>
       <c r="I72" s="11">
-        <v>497</v>
+        <v>570</v>
       </c>
       <c r="J72" s="11">
-        <v>570</v>
+        <v>543</v>
       </c>
       <c r="K72" s="11">
+        <v>480</v>
+      </c>
+      <c r="L72" s="11">
+        <v>535</v>
+      </c>
+      <c r="M72" s="11">
+        <v>608</v>
+      </c>
+      <c r="N72" s="11">
         <v>543</v>
       </c>
-      <c r="L72" s="11">
-        <v>480</v>
-      </c>
-      <c r="M72" s="11">
-        <v>535</v>
-      </c>
-      <c r="N72" s="11">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>39</v>
       </c>
@@ -3068,37 +3068,37 @@
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9">
-        <v>2157748</v>
+        <v>2088673</v>
       </c>
       <c r="F73" s="9">
-        <v>2088673</v>
+        <v>2415676</v>
       </c>
       <c r="G73" s="9">
-        <v>2415676</v>
+        <v>2090482</v>
       </c>
       <c r="H73" s="9">
-        <v>2090482</v>
+        <v>2603719</v>
       </c>
       <c r="I73" s="9">
-        <v>2603719</v>
+        <v>2694486</v>
       </c>
       <c r="J73" s="9">
-        <v>2694486</v>
+        <v>2220938</v>
       </c>
       <c r="K73" s="9">
-        <v>2220938</v>
+        <v>2144622</v>
       </c>
       <c r="L73" s="9">
-        <v>2144622</v>
+        <v>2368755</v>
       </c>
       <c r="M73" s="9">
-        <v>2368755</v>
+        <v>2696196</v>
       </c>
       <c r="N73" s="9">
-        <v>2696196</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2334651</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>41</v>
       </c>
@@ -3107,37 +3107,37 @@
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11">
-        <v>379</v>
+        <v>412</v>
       </c>
       <c r="F74" s="11">
-        <v>412</v>
+        <v>625</v>
       </c>
       <c r="G74" s="11">
-        <v>625</v>
+        <v>495</v>
       </c>
       <c r="H74" s="11">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="I74" s="11">
-        <v>479</v>
+        <v>676</v>
       </c>
       <c r="J74" s="11">
-        <v>676</v>
+        <v>489</v>
       </c>
       <c r="K74" s="11">
-        <v>489</v>
+        <v>567</v>
       </c>
       <c r="L74" s="11">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="M74" s="11">
-        <v>566</v>
+        <v>653</v>
       </c>
       <c r="N74" s="11">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>42</v>
       </c>
@@ -3146,37 +3146,37 @@
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="F75" s="9">
-        <v>1172</v>
+        <v>1486</v>
       </c>
       <c r="G75" s="9">
-        <v>1486</v>
+        <v>1138</v>
       </c>
       <c r="H75" s="9">
-        <v>1138</v>
+        <v>1317</v>
       </c>
       <c r="I75" s="9">
-        <v>1317</v>
+        <v>1586</v>
       </c>
       <c r="J75" s="9">
-        <v>1586</v>
+        <v>1386</v>
       </c>
       <c r="K75" s="9">
-        <v>1386</v>
+        <v>1291</v>
       </c>
       <c r="L75" s="9">
-        <v>1291</v>
+        <v>1443</v>
       </c>
       <c r="M75" s="9">
-        <v>1443</v>
+        <v>1681</v>
       </c>
       <c r="N75" s="9">
-        <v>1681</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>43</v>
       </c>
@@ -3185,74 +3185,74 @@
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="F76" s="11">
-        <v>628</v>
+        <v>411</v>
       </c>
       <c r="G76" s="11">
-        <v>411</v>
+        <v>503</v>
       </c>
       <c r="H76" s="11">
-        <v>503</v>
+        <v>571</v>
       </c>
       <c r="I76" s="11">
+        <v>641</v>
+      </c>
+      <c r="J76" s="11">
+        <v>566</v>
+      </c>
+      <c r="K76" s="11">
+        <v>564</v>
+      </c>
+      <c r="L76" s="11">
         <v>571</v>
       </c>
-      <c r="J76" s="11">
-        <v>641</v>
-      </c>
-      <c r="K76" s="11">
-        <v>566</v>
-      </c>
-      <c r="L76" s="11">
-        <v>564</v>
-      </c>
       <c r="M76" s="11">
-        <v>571</v>
+        <v>719</v>
       </c>
       <c r="N76" s="11">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15">
-        <v>2162752</v>
+        <v>2093637</v>
       </c>
       <c r="F77" s="15">
-        <v>2093637</v>
+        <v>2422337</v>
       </c>
       <c r="G77" s="15">
-        <v>2422337</v>
+        <v>2095574</v>
       </c>
       <c r="H77" s="15">
-        <v>2095574</v>
+        <v>2609492</v>
       </c>
       <c r="I77" s="15">
-        <v>2609492</v>
+        <v>2701723</v>
       </c>
       <c r="J77" s="15">
-        <v>2701723</v>
+        <v>2226913</v>
       </c>
       <c r="K77" s="15">
-        <v>2226913</v>
+        <v>2150390</v>
       </c>
       <c r="L77" s="15">
-        <v>2150390</v>
+        <v>2375018</v>
       </c>
       <c r="M77" s="15">
-        <v>2375018</v>
+        <v>2703643</v>
       </c>
       <c r="N77" s="15">
-        <v>2703643</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2341085</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -3267,7 +3267,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -3282,7 +3282,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3297,7 +3297,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
         <v>46</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3349,7 +3349,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>29</v>
       </c>
@@ -3378,17 +3378,17 @@
       <c r="K83" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L83" s="9" t="s">
-        <v>31</v>
+      <c r="L83" s="9">
+        <v>88</v>
       </c>
       <c r="M83" s="9">
-        <v>88</v>
-      </c>
-      <c r="N83" s="9">
         <v>32</v>
       </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N83" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>32</v>
       </c>
@@ -3399,35 +3399,35 @@
       <c r="E84" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F84" s="11" t="s">
-        <v>31</v>
+      <c r="F84" s="11">
+        <v>98</v>
       </c>
       <c r="G84" s="11">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="H84" s="11">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="I84" s="11">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="J84" s="11">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="K84" s="11">
-        <v>14</v>
+        <v>1054</v>
       </c>
       <c r="L84" s="11">
-        <v>1054</v>
+        <v>947</v>
       </c>
       <c r="M84" s="11">
-        <v>947</v>
-      </c>
-      <c r="N84" s="11">
         <v>842</v>
       </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N84" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>33</v>
       </c>
@@ -3436,37 +3436,37 @@
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F85" s="9">
-        <v>17</v>
+        <v>284</v>
       </c>
       <c r="G85" s="9">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="H85" s="9">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="I85" s="9">
-        <v>239</v>
+        <v>51</v>
       </c>
       <c r="J85" s="9">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="K85" s="9">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="L85" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M85" s="9">
-        <v>0</v>
-      </c>
-      <c r="N85" s="9">
         <v>14</v>
       </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N85" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>34</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>35</v>
       </c>
@@ -3514,25 +3514,25 @@
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F87" s="9">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G87" s="9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H87" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I87" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87" s="9">
         <v>0</v>
       </c>
-      <c r="K87" s="9">
-        <v>0</v>
+      <c r="K87" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="L87" s="9" t="s">
         <v>31</v>
@@ -3544,7 +3544,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>36</v>
       </c>
@@ -3556,34 +3556,34 @@
         <v>115</v>
       </c>
       <c r="F88" s="11">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="G88" s="11">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="H88" s="11">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="I88" s="11">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="J88" s="11">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="K88" s="11">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="L88" s="11">
+        <v>195</v>
+      </c>
+      <c r="M88" s="11">
+        <v>237</v>
+      </c>
+      <c r="N88" s="11">
         <v>181</v>
       </c>
-      <c r="M88" s="11">
-        <v>195</v>
-      </c>
-      <c r="N88" s="11">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>37</v>
       </c>
@@ -3592,37 +3592,37 @@
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9">
-        <v>216</v>
+        <v>23</v>
       </c>
       <c r="F89" s="9">
-        <v>23</v>
+        <v>227</v>
       </c>
       <c r="G89" s="9">
-        <v>227</v>
+        <v>513</v>
       </c>
       <c r="H89" s="9">
-        <v>513</v>
+        <v>643</v>
       </c>
       <c r="I89" s="9">
-        <v>643</v>
+        <v>285</v>
       </c>
       <c r="J89" s="9">
-        <v>285</v>
+        <v>1</v>
       </c>
       <c r="K89" s="9">
-        <v>1</v>
+        <v>679</v>
       </c>
       <c r="L89" s="9">
-        <v>679</v>
+        <v>829</v>
       </c>
       <c r="M89" s="9">
-        <v>829</v>
+        <v>450</v>
       </c>
       <c r="N89" s="9">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>38</v>
       </c>
@@ -3631,37 +3631,37 @@
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F90" s="11">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G90" s="11">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="H90" s="11">
+        <v>8</v>
+      </c>
+      <c r="I90" s="11">
+        <v>20</v>
+      </c>
+      <c r="J90" s="11">
+        <v>0</v>
+      </c>
+      <c r="K90" s="11">
+        <v>8</v>
+      </c>
+      <c r="L90" s="11">
+        <v>37</v>
+      </c>
+      <c r="M90" s="11">
         <v>25</v>
       </c>
-      <c r="I90" s="11">
-        <v>8</v>
-      </c>
-      <c r="J90" s="11">
-        <v>20</v>
-      </c>
-      <c r="K90" s="11">
-        <v>0</v>
-      </c>
-      <c r="L90" s="11">
-        <v>8</v>
-      </c>
-      <c r="M90" s="11">
-        <v>37</v>
-      </c>
       <c r="N90" s="11">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>39</v>
       </c>
@@ -3670,37 +3670,37 @@
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
-        <v>595258</v>
+        <v>570958</v>
       </c>
       <c r="F91" s="9">
-        <v>570958</v>
+        <v>658492</v>
       </c>
       <c r="G91" s="9">
-        <v>658492</v>
+        <v>736616</v>
       </c>
       <c r="H91" s="9">
-        <v>736616</v>
+        <v>735744</v>
       </c>
       <c r="I91" s="9">
-        <v>735744</v>
+        <v>814776</v>
       </c>
       <c r="J91" s="9">
-        <v>814776</v>
+        <v>779805</v>
       </c>
       <c r="K91" s="9">
-        <v>779805</v>
+        <v>812690</v>
       </c>
       <c r="L91" s="9">
-        <v>812690</v>
+        <v>789652</v>
       </c>
       <c r="M91" s="9">
-        <v>789652</v>
+        <v>773482</v>
       </c>
       <c r="N91" s="9">
-        <v>773482</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+        <v>914078</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>41</v>
       </c>
@@ -3709,37 +3709,37 @@
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F92" s="11">
-        <v>58</v>
+        <v>581</v>
       </c>
       <c r="G92" s="11">
-        <v>581</v>
+        <v>298</v>
       </c>
       <c r="H92" s="11">
-        <v>298</v>
+        <v>1</v>
       </c>
       <c r="I92" s="11">
-        <v>1</v>
+        <v>657</v>
       </c>
       <c r="J92" s="11">
-        <v>657</v>
+        <v>1790</v>
       </c>
       <c r="K92" s="11">
-        <v>1790</v>
+        <v>1308</v>
       </c>
       <c r="L92" s="11">
-        <v>1308</v>
+        <v>784</v>
       </c>
       <c r="M92" s="11">
-        <v>784</v>
+        <v>1183</v>
       </c>
       <c r="N92" s="11">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>42</v>
       </c>
@@ -3748,37 +3748,37 @@
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9">
-        <v>3178</v>
+        <v>1785</v>
       </c>
       <c r="F93" s="9">
-        <v>1785</v>
+        <v>1519</v>
       </c>
       <c r="G93" s="9">
-        <v>1519</v>
+        <v>770</v>
       </c>
       <c r="H93" s="9">
-        <v>770</v>
+        <v>1168</v>
       </c>
       <c r="I93" s="9">
-        <v>1168</v>
+        <v>470</v>
       </c>
       <c r="J93" s="9">
-        <v>470</v>
+        <v>11</v>
       </c>
       <c r="K93" s="9">
-        <v>11</v>
+        <v>2697</v>
       </c>
       <c r="L93" s="9">
-        <v>2697</v>
+        <v>1253</v>
       </c>
       <c r="M93" s="9">
-        <v>1253</v>
+        <v>896</v>
       </c>
       <c r="N93" s="9">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>43</v>
       </c>
@@ -3787,74 +3787,74 @@
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11">
-        <v>304</v>
+        <v>208</v>
       </c>
       <c r="F94" s="11">
-        <v>208</v>
+        <v>275</v>
       </c>
       <c r="G94" s="11">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="H94" s="11">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="I94" s="11">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="J94" s="11">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="K94" s="11">
-        <v>280</v>
+        <v>195</v>
       </c>
       <c r="L94" s="11">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M94" s="11">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="N94" s="11">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
       <c r="E95" s="15">
-        <v>599201</v>
+        <v>573198</v>
       </c>
       <c r="F95" s="15">
-        <v>573198</v>
+        <v>661640</v>
       </c>
       <c r="G95" s="15">
-        <v>661640</v>
+        <v>738928</v>
       </c>
       <c r="H95" s="15">
-        <v>738928</v>
+        <v>738373</v>
       </c>
       <c r="I95" s="15">
-        <v>738373</v>
+        <v>816838</v>
       </c>
       <c r="J95" s="15">
-        <v>816838</v>
+        <v>782106</v>
       </c>
       <c r="K95" s="15">
-        <v>782106</v>
+        <v>818813</v>
       </c>
       <c r="L95" s="15">
-        <v>818813</v>
+        <v>793985</v>
       </c>
       <c r="M95" s="15">
-        <v>793985</v>
+        <v>777328</v>
       </c>
       <c r="N95" s="15">
-        <v>777328</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+        <v>918126</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3869,7 +3869,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3884,7 +3884,7 @@
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3899,7 +3899,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B99" s="7" t="s">
         <v>47</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3951,7 +3951,7 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>29</v>
       </c>
@@ -3983,14 +3983,14 @@
       <c r="L101" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M101" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N101" s="9">
+      <c r="M101" s="9">
         <v>65656</v>
       </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N101" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>32</v>
       </c>
@@ -4004,32 +4004,32 @@
       <c r="F102" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G102" s="11" t="s">
-        <v>31</v>
+      <c r="G102" s="11">
+        <v>14432</v>
       </c>
       <c r="H102" s="11">
-        <v>14432</v>
+        <v>3862</v>
       </c>
       <c r="I102" s="11">
-        <v>3862</v>
+        <v>25127</v>
       </c>
       <c r="J102" s="11">
-        <v>25127</v>
+        <v>20641</v>
       </c>
       <c r="K102" s="11">
-        <v>20641</v>
+        <v>2519</v>
       </c>
       <c r="L102" s="11">
-        <v>2519</v>
+        <v>176215</v>
       </c>
       <c r="M102" s="11">
-        <v>176215</v>
-      </c>
-      <c r="N102" s="11">
         <v>155341</v>
       </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N102" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>33</v>
       </c>
@@ -4038,37 +4038,37 @@
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
-        <v>12164</v>
+        <v>7276</v>
       </c>
       <c r="F103" s="9">
-        <v>7276</v>
+        <v>2752</v>
       </c>
       <c r="G103" s="9">
-        <v>2752</v>
+        <v>113942</v>
       </c>
       <c r="H103" s="9">
-        <v>113942</v>
+        <v>107196</v>
       </c>
       <c r="I103" s="9">
-        <v>107196</v>
+        <v>95711</v>
       </c>
       <c r="J103" s="9">
-        <v>95711</v>
+        <v>21516</v>
       </c>
       <c r="K103" s="9">
-        <v>21516</v>
+        <v>13161</v>
       </c>
       <c r="L103" s="9">
-        <v>13161</v>
+        <v>179</v>
       </c>
       <c r="M103" s="9">
-        <v>179</v>
-      </c>
-      <c r="N103" s="9">
         <v>196</v>
       </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N103" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>34</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>35</v>
       </c>
@@ -4116,25 +4116,25 @@
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9">
-        <v>27354</v>
+        <v>23112</v>
       </c>
       <c r="F105" s="9">
-        <v>23112</v>
+        <v>19149</v>
       </c>
       <c r="G105" s="9">
-        <v>19149</v>
+        <v>13877</v>
       </c>
       <c r="H105" s="9">
-        <v>13877</v>
+        <v>9368</v>
       </c>
       <c r="I105" s="9">
-        <v>9368</v>
+        <v>4235</v>
       </c>
       <c r="J105" s="9">
-        <v>4235</v>
-      </c>
-      <c r="K105" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K105" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="L105" s="9" t="s">
         <v>31</v>
@@ -4146,7 +4146,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>36</v>
       </c>
@@ -4155,37 +4155,37 @@
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="11">
-        <v>26573</v>
+        <v>29445</v>
       </c>
       <c r="F106" s="11">
-        <v>29445</v>
+        <v>38016</v>
       </c>
       <c r="G106" s="11">
-        <v>38016</v>
+        <v>66730</v>
       </c>
       <c r="H106" s="11">
-        <v>66730</v>
+        <v>64405</v>
       </c>
       <c r="I106" s="11">
-        <v>64405</v>
+        <v>73672</v>
       </c>
       <c r="J106" s="11">
-        <v>73672</v>
+        <v>116648</v>
       </c>
       <c r="K106" s="11">
-        <v>116648</v>
+        <v>98221</v>
       </c>
       <c r="L106" s="11">
-        <v>98221</v>
+        <v>106849</v>
       </c>
       <c r="M106" s="11">
-        <v>106849</v>
+        <v>110027</v>
       </c>
       <c r="N106" s="11">
-        <v>110027</v>
-      </c>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+        <v>108144</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>37</v>
       </c>
@@ -4194,37 +4194,37 @@
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9">
-        <v>3874</v>
+        <v>6497</v>
       </c>
       <c r="F107" s="9">
-        <v>6497</v>
+        <v>802</v>
       </c>
       <c r="G107" s="9">
-        <v>802</v>
+        <v>8043</v>
       </c>
       <c r="H107" s="9">
-        <v>8043</v>
+        <v>19939</v>
       </c>
       <c r="I107" s="9">
-        <v>19939</v>
+        <v>25826</v>
       </c>
       <c r="J107" s="9">
-        <v>25826</v>
+        <v>11614</v>
       </c>
       <c r="K107" s="9">
-        <v>11614</v>
+        <v>28</v>
       </c>
       <c r="L107" s="9">
-        <v>28</v>
+        <v>106741</v>
       </c>
       <c r="M107" s="9">
-        <v>106741</v>
+        <v>129528</v>
       </c>
       <c r="N107" s="9">
-        <v>129528</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+        <v>69930</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>38</v>
       </c>
@@ -4233,37 +4233,37 @@
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="11">
-        <v>2380</v>
+        <v>2127</v>
       </c>
       <c r="F108" s="11">
-        <v>2127</v>
+        <v>4001</v>
       </c>
       <c r="G108" s="11">
-        <v>4001</v>
+        <v>469</v>
       </c>
       <c r="H108" s="11">
-        <v>469</v>
+        <v>4158</v>
       </c>
       <c r="I108" s="11">
-        <v>4158</v>
+        <v>1842</v>
       </c>
       <c r="J108" s="11">
-        <v>1842</v>
+        <v>3805</v>
       </c>
       <c r="K108" s="11">
-        <v>3805</v>
+        <v>0</v>
       </c>
       <c r="L108" s="11">
-        <v>0</v>
+        <v>2494</v>
       </c>
       <c r="M108" s="11">
-        <v>2494</v>
+        <v>16190</v>
       </c>
       <c r="N108" s="11">
-        <v>16190</v>
-      </c>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+        <v>11143</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>39</v>
       </c>
@@ -4272,37 +4272,37 @@
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9">
-        <v>9060</v>
+        <v>10492</v>
       </c>
       <c r="F109" s="9">
-        <v>10492</v>
+        <v>12775</v>
       </c>
       <c r="G109" s="9">
-        <v>12775</v>
+        <v>18812</v>
       </c>
       <c r="H109" s="9">
-        <v>18812</v>
+        <v>23457</v>
       </c>
       <c r="I109" s="9">
-        <v>23457</v>
+        <v>24458</v>
       </c>
       <c r="J109" s="9">
-        <v>24458</v>
+        <v>29617</v>
       </c>
       <c r="K109" s="9">
-        <v>29617</v>
+        <v>29652</v>
       </c>
       <c r="L109" s="9">
-        <v>29652</v>
+        <v>33121</v>
       </c>
       <c r="M109" s="9">
-        <v>33121</v>
+        <v>33459</v>
       </c>
       <c r="N109" s="9">
-        <v>33459</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+        <v>37775</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>41</v>
       </c>
@@ -4311,37 +4311,37 @@
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11">
-        <v>7887</v>
+        <v>4279</v>
       </c>
       <c r="F110" s="11">
-        <v>4279</v>
+        <v>5951</v>
       </c>
       <c r="G110" s="11">
-        <v>5951</v>
+        <v>47874</v>
       </c>
       <c r="H110" s="11">
-        <v>47874</v>
+        <v>26868</v>
       </c>
       <c r="I110" s="11">
-        <v>26868</v>
+        <v>146</v>
       </c>
       <c r="J110" s="11">
-        <v>146</v>
+        <v>96966</v>
       </c>
       <c r="K110" s="11">
-        <v>96966</v>
+        <v>252585</v>
       </c>
       <c r="L110" s="11">
-        <v>252585</v>
+        <v>215150</v>
       </c>
       <c r="M110" s="11">
-        <v>215150</v>
+        <v>137267</v>
       </c>
       <c r="N110" s="11">
-        <v>137267</v>
-      </c>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+        <v>515534</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>42</v>
       </c>
@@ -4350,37 +4350,37 @@
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9">
-        <v>47062</v>
+        <v>218172</v>
       </c>
       <c r="F111" s="9">
-        <v>218172</v>
+        <v>122569</v>
       </c>
       <c r="G111" s="9">
-        <v>122569</v>
+        <v>85073</v>
       </c>
       <c r="H111" s="9">
-        <v>85073</v>
+        <v>66280</v>
       </c>
       <c r="I111" s="9">
-        <v>66280</v>
+        <v>130357</v>
       </c>
       <c r="J111" s="9">
-        <v>130357</v>
+        <v>55950</v>
       </c>
       <c r="K111" s="9">
-        <v>55950</v>
+        <v>1261</v>
       </c>
       <c r="L111" s="9">
-        <v>1261</v>
+        <v>372515</v>
       </c>
       <c r="M111" s="9">
-        <v>372515</v>
+        <v>173222</v>
       </c>
       <c r="N111" s="9">
-        <v>173222</v>
-      </c>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+        <v>160929</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>43</v>
       </c>
@@ -4389,74 +4389,74 @@
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="11">
-        <v>58332</v>
+        <v>68538</v>
       </c>
       <c r="F112" s="11">
-        <v>68538</v>
+        <v>72603</v>
       </c>
       <c r="G112" s="11">
-        <v>72603</v>
+        <v>79592</v>
       </c>
       <c r="H112" s="11">
-        <v>79592</v>
+        <v>124019</v>
       </c>
       <c r="I112" s="11">
-        <v>124019</v>
+        <v>113168</v>
       </c>
       <c r="J112" s="11">
-        <v>113168</v>
+        <v>139675</v>
       </c>
       <c r="K112" s="11">
-        <v>139675</v>
+        <v>115222</v>
       </c>
       <c r="L112" s="11">
-        <v>115222</v>
+        <v>101715</v>
       </c>
       <c r="M112" s="11">
-        <v>101715</v>
+        <v>105355</v>
       </c>
       <c r="N112" s="11">
-        <v>105355</v>
-      </c>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+        <v>134107</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C113" s="15"/>
       <c r="D113" s="15"/>
       <c r="E113" s="15">
-        <v>194686</v>
+        <v>369938</v>
       </c>
       <c r="F113" s="15">
-        <v>369938</v>
+        <v>278618</v>
       </c>
       <c r="G113" s="15">
-        <v>278618</v>
+        <v>448844</v>
       </c>
       <c r="H113" s="15">
-        <v>448844</v>
+        <v>449552</v>
       </c>
       <c r="I113" s="15">
-        <v>449552</v>
+        <v>494542</v>
       </c>
       <c r="J113" s="15">
-        <v>494542</v>
+        <v>496432</v>
       </c>
       <c r="K113" s="15">
-        <v>496432</v>
+        <v>512649</v>
       </c>
       <c r="L113" s="15">
-        <v>512649</v>
+        <v>1114979</v>
       </c>
       <c r="M113" s="15">
-        <v>1114979</v>
+        <v>926241</v>
       </c>
       <c r="N113" s="15">
-        <v>926241</v>
-      </c>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1037562</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -4471,7 +4471,7 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -4486,7 +4486,7 @@
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -4501,7 +4501,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B117" s="7" t="s">
         <v>49</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -4553,7 +4553,7 @@
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>29</v>
       </c>
@@ -4585,14 +4585,14 @@
       <c r="L119" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M119" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N119" s="9">
+      <c r="M119" s="9">
         <v>-36285</v>
       </c>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N119" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>32</v>
       </c>
@@ -4603,35 +4603,35 @@
       <c r="E120" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F120" s="11" t="s">
-        <v>31</v>
+      <c r="F120" s="11">
+        <v>59697</v>
       </c>
       <c r="G120" s="11">
-        <v>59697</v>
+        <v>0</v>
       </c>
       <c r="H120" s="11">
-        <v>0</v>
+        <v>36362</v>
       </c>
       <c r="I120" s="11">
-        <v>36362</v>
+        <v>12060</v>
       </c>
       <c r="J120" s="11">
-        <v>12060</v>
+        <v>-1789</v>
       </c>
       <c r="K120" s="11">
-        <v>-1789</v>
+        <v>190023</v>
       </c>
       <c r="L120" s="11">
-        <v>190023</v>
+        <v>-4852</v>
       </c>
       <c r="M120" s="11">
-        <v>-4852</v>
-      </c>
-      <c r="N120" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="N120" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>33</v>
       </c>
@@ -4643,34 +4643,34 @@
         <v>0</v>
       </c>
       <c r="F121" s="9">
-        <v>0</v>
+        <v>121156</v>
       </c>
       <c r="G121" s="9">
-        <v>121156</v>
+        <v>0</v>
       </c>
       <c r="H121" s="9">
         <v>0</v>
       </c>
       <c r="I121" s="9">
-        <v>0</v>
+        <v>29170</v>
       </c>
       <c r="J121" s="9">
-        <v>29170</v>
+        <v>-842</v>
       </c>
       <c r="K121" s="9">
-        <v>-842</v>
+        <v>0</v>
       </c>
       <c r="L121" s="9">
-        <v>0</v>
+        <v>30794</v>
       </c>
       <c r="M121" s="9">
-        <v>30794</v>
-      </c>
-      <c r="N121" s="9">
         <v>47961</v>
       </c>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N121" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
         <v>34</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
         <v>35</v>
       </c>
@@ -4735,8 +4735,8 @@
       <c r="J123" s="9">
         <v>0</v>
       </c>
-      <c r="K123" s="9">
-        <v>0</v>
+      <c r="K123" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="L123" s="9" t="s">
         <v>31</v>
@@ -4748,7 +4748,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>36</v>
       </c>
@@ -4757,37 +4757,37 @@
       </c>
       <c r="D124" s="11"/>
       <c r="E124" s="11">
-        <v>76260</v>
+        <v>102103</v>
       </c>
       <c r="F124" s="11">
-        <v>102103</v>
+        <v>138470</v>
       </c>
       <c r="G124" s="11">
-        <v>138470</v>
+        <v>106728</v>
       </c>
       <c r="H124" s="11">
-        <v>106728</v>
+        <v>120607</v>
       </c>
       <c r="I124" s="11">
-        <v>120607</v>
+        <v>210367</v>
       </c>
       <c r="J124" s="11">
-        <v>210367</v>
+        <v>111721</v>
       </c>
       <c r="K124" s="11">
-        <v>111721</v>
+        <v>141414</v>
       </c>
       <c r="L124" s="11">
-        <v>141414</v>
+        <v>141778</v>
       </c>
       <c r="M124" s="11">
-        <v>141778</v>
+        <v>168106</v>
       </c>
       <c r="N124" s="11">
-        <v>168106</v>
-      </c>
-    </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+        <v>158970</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>37</v>
       </c>
@@ -4796,37 +4796,37 @@
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9">
-        <v>68671</v>
+        <v>62806</v>
       </c>
       <c r="F125" s="9">
-        <v>62806</v>
+        <v>121397</v>
       </c>
       <c r="G125" s="9">
-        <v>121397</v>
+        <v>98789</v>
       </c>
       <c r="H125" s="9">
-        <v>98789</v>
+        <v>109705</v>
       </c>
       <c r="I125" s="9">
-        <v>109705</v>
+        <v>124904</v>
       </c>
       <c r="J125" s="9">
-        <v>124904</v>
+        <v>93539</v>
       </c>
       <c r="K125" s="9">
-        <v>93539</v>
+        <v>478595</v>
       </c>
       <c r="L125" s="9">
-        <v>478595</v>
+        <v>472697</v>
       </c>
       <c r="M125" s="9">
-        <v>472697</v>
+        <v>472414</v>
       </c>
       <c r="N125" s="9">
-        <v>472414</v>
-      </c>
-    </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+        <v>351695</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>38</v>
       </c>
@@ -4835,37 +4835,37 @@
       </c>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
-        <v>50382</v>
+        <v>77598</v>
       </c>
       <c r="F126" s="11">
-        <v>77598</v>
+        <v>77266</v>
       </c>
       <c r="G126" s="11">
-        <v>77266</v>
+        <v>64002</v>
       </c>
       <c r="H126" s="11">
-        <v>64002</v>
+        <v>94940</v>
       </c>
       <c r="I126" s="11">
-        <v>94940</v>
+        <v>129989</v>
       </c>
       <c r="J126" s="11">
-        <v>129989</v>
+        <v>118558</v>
       </c>
       <c r="K126" s="11">
-        <v>118558</v>
+        <v>129238</v>
       </c>
       <c r="L126" s="11">
-        <v>129238</v>
+        <v>208842</v>
       </c>
       <c r="M126" s="11">
-        <v>208842</v>
+        <v>251646</v>
       </c>
       <c r="N126" s="11">
-        <v>251646</v>
-      </c>
-    </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+        <v>215464</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>39</v>
       </c>
@@ -4874,37 +4874,37 @@
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9">
-        <v>52085</v>
+        <v>65199</v>
       </c>
       <c r="F127" s="9">
-        <v>65199</v>
+        <v>88889</v>
       </c>
       <c r="G127" s="9">
-        <v>88889</v>
+        <v>84622</v>
       </c>
       <c r="H127" s="9">
-        <v>84622</v>
+        <v>107092</v>
       </c>
       <c r="I127" s="9">
-        <v>107092</v>
+        <v>120051</v>
       </c>
       <c r="J127" s="9">
-        <v>120051</v>
+        <v>109008</v>
       </c>
       <c r="K127" s="9">
-        <v>109008</v>
+        <v>115956</v>
       </c>
       <c r="L127" s="9">
-        <v>115956</v>
+        <v>146473</v>
       </c>
       <c r="M127" s="9">
-        <v>146473</v>
+        <v>166150</v>
       </c>
       <c r="N127" s="9">
-        <v>166150</v>
-      </c>
-    </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+        <v>160472</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>41</v>
       </c>
@@ -4913,37 +4913,37 @@
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
-        <v>26329</v>
+        <v>38316</v>
       </c>
       <c r="F128" s="11">
-        <v>38316</v>
+        <v>101398</v>
       </c>
       <c r="G128" s="11">
-        <v>101398</v>
+        <v>26315</v>
       </c>
       <c r="H128" s="11">
-        <v>26315</v>
+        <v>23754</v>
       </c>
       <c r="I128" s="11">
-        <v>23754</v>
+        <v>193793</v>
       </c>
       <c r="J128" s="11">
-        <v>193793</v>
+        <v>224869</v>
       </c>
       <c r="K128" s="11">
-        <v>224869</v>
+        <v>49526</v>
       </c>
       <c r="L128" s="11">
-        <v>49526</v>
+        <v>34329</v>
       </c>
       <c r="M128" s="11">
-        <v>34329</v>
+        <v>591212</v>
       </c>
       <c r="N128" s="11">
-        <v>591212</v>
-      </c>
-    </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+        <v>74103</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>42</v>
       </c>
@@ -4952,37 +4952,37 @@
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9">
-        <v>247508</v>
+        <v>-15123</v>
       </c>
       <c r="F129" s="9">
-        <v>-15123</v>
+        <v>50061</v>
       </c>
       <c r="G129" s="9">
-        <v>50061</v>
+        <v>45703</v>
       </c>
       <c r="H129" s="9">
-        <v>45703</v>
+        <v>203425</v>
       </c>
       <c r="I129" s="9">
-        <v>203425</v>
+        <v>114175</v>
       </c>
       <c r="J129" s="9">
-        <v>114175</v>
+        <v>122997</v>
       </c>
       <c r="K129" s="9">
-        <v>122997</v>
+        <v>547417</v>
       </c>
       <c r="L129" s="9">
-        <v>547417</v>
+        <v>490</v>
       </c>
       <c r="M129" s="9">
-        <v>490</v>
+        <v>242980</v>
       </c>
       <c r="N129" s="9">
-        <v>242980</v>
-      </c>
-    </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+        <v>497446</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>43</v>
       </c>
@@ -4991,74 +4991,74 @@
       </c>
       <c r="D130" s="11"/>
       <c r="E130" s="11">
-        <v>103789</v>
+        <v>124441</v>
       </c>
       <c r="F130" s="11">
-        <v>124441</v>
+        <v>131079</v>
       </c>
       <c r="G130" s="11">
-        <v>131079</v>
+        <v>170474</v>
       </c>
       <c r="H130" s="11">
-        <v>170474</v>
+        <v>143726</v>
       </c>
       <c r="I130" s="11">
-        <v>143726</v>
+        <v>226790</v>
       </c>
       <c r="J130" s="11">
-        <v>226790</v>
+        <v>209576</v>
       </c>
       <c r="K130" s="11">
-        <v>209576</v>
+        <v>227764</v>
       </c>
       <c r="L130" s="11">
-        <v>227764</v>
+        <v>271771</v>
       </c>
       <c r="M130" s="11">
-        <v>271771</v>
+        <v>401602</v>
       </c>
       <c r="N130" s="11">
-        <v>401602</v>
-      </c>
-    </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+        <v>665272</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C131" s="15"/>
       <c r="D131" s="15"/>
       <c r="E131" s="15">
-        <v>625024</v>
+        <v>455340</v>
       </c>
       <c r="F131" s="15">
-        <v>455340</v>
+        <v>889413</v>
       </c>
       <c r="G131" s="15">
-        <v>889413</v>
+        <v>596633</v>
       </c>
       <c r="H131" s="15">
-        <v>596633</v>
+        <v>839611</v>
       </c>
       <c r="I131" s="15">
-        <v>839611</v>
+        <v>1161299</v>
       </c>
       <c r="J131" s="15">
-        <v>1161299</v>
+        <v>987637</v>
       </c>
       <c r="K131" s="15">
-        <v>987637</v>
+        <v>1879933</v>
       </c>
       <c r="L131" s="15">
-        <v>1879933</v>
+        <v>1302322</v>
       </c>
       <c r="M131" s="15">
-        <v>1302322</v>
+        <v>2305786</v>
       </c>
       <c r="N131" s="15">
-        <v>2305786</v>
-      </c>
-    </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2123422</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -5073,7 +5073,7 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -5088,7 +5088,7 @@
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -5103,7 +5103,7 @@
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
     </row>
-    <row r="135" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B135" s="7" t="s">
         <v>50</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -5155,7 +5155,7 @@
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>29</v>
       </c>
@@ -5187,14 +5187,14 @@
       <c r="L137" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M137" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N137" s="9">
+      <c r="M137" s="9">
         <v>4858</v>
       </c>
-    </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N137" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>32</v>
       </c>
@@ -5205,35 +5205,35 @@
       <c r="E138" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F138" s="11" t="s">
-        <v>31</v>
+      <c r="F138" s="11">
+        <v>51520</v>
       </c>
       <c r="G138" s="11">
-        <v>51520</v>
+        <v>10570</v>
       </c>
       <c r="H138" s="11">
-        <v>10570</v>
+        <v>15097</v>
       </c>
       <c r="I138" s="11">
-        <v>15097</v>
+        <v>16546</v>
       </c>
       <c r="J138" s="11">
-        <v>16546</v>
+        <v>16333</v>
       </c>
       <c r="K138" s="11">
-        <v>16333</v>
+        <v>16327</v>
       </c>
       <c r="L138" s="11">
-        <v>16327</v>
+        <v>16022</v>
       </c>
       <c r="M138" s="11">
-        <v>16022</v>
-      </c>
-      <c r="N138" s="11">
         <v>17469</v>
       </c>
-    </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N138" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>33</v>
       </c>
@@ -5242,37 +5242,37 @@
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9">
-        <v>4888</v>
+        <v>4524</v>
       </c>
       <c r="F139" s="9">
-        <v>4524</v>
+        <v>9966</v>
       </c>
       <c r="G139" s="9">
-        <v>9966</v>
+        <v>6746</v>
       </c>
       <c r="H139" s="9">
-        <v>6746</v>
+        <v>11485</v>
       </c>
       <c r="I139" s="9">
-        <v>11485</v>
+        <v>10456</v>
       </c>
       <c r="J139" s="9">
-        <v>10456</v>
+        <v>7513</v>
       </c>
       <c r="K139" s="9">
-        <v>7513</v>
+        <v>12982</v>
       </c>
       <c r="L139" s="9">
-        <v>12982</v>
+        <v>30777</v>
       </c>
       <c r="M139" s="9">
-        <v>30777</v>
-      </c>
-      <c r="N139" s="9">
         <v>37661</v>
       </c>
-    </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N139" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
         <v>34</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>35</v>
       </c>
@@ -5320,25 +5320,25 @@
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9">
-        <v>4242</v>
+        <v>3963</v>
       </c>
       <c r="F141" s="9">
-        <v>3963</v>
+        <v>5272</v>
       </c>
       <c r="G141" s="9">
-        <v>5272</v>
+        <v>4509</v>
       </c>
       <c r="H141" s="9">
-        <v>4509</v>
+        <v>5133</v>
       </c>
       <c r="I141" s="9">
-        <v>5133</v>
+        <v>4235</v>
       </c>
       <c r="J141" s="9">
-        <v>4235</v>
-      </c>
-      <c r="K141" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K141" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="L141" s="9" t="s">
         <v>31</v>
@@ -5350,7 +5350,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
         <v>36</v>
       </c>
@@ -5359,37 +5359,37 @@
       </c>
       <c r="D142" s="11"/>
       <c r="E142" s="11">
-        <v>73388</v>
+        <v>93532</v>
       </c>
       <c r="F142" s="11">
-        <v>93532</v>
+        <v>109756</v>
       </c>
       <c r="G142" s="11">
-        <v>109756</v>
+        <v>109053</v>
       </c>
       <c r="H142" s="11">
-        <v>109053</v>
+        <v>111340</v>
       </c>
       <c r="I142" s="11">
-        <v>111340</v>
+        <v>167391</v>
       </c>
       <c r="J142" s="11">
-        <v>167391</v>
+        <v>130148</v>
       </c>
       <c r="K142" s="11">
-        <v>130148</v>
+        <v>132786</v>
       </c>
       <c r="L142" s="11">
-        <v>132786</v>
+        <v>138600</v>
       </c>
       <c r="M142" s="11">
-        <v>138600</v>
+        <v>169989</v>
       </c>
       <c r="N142" s="11">
-        <v>169989</v>
-      </c>
-    </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+        <v>146871</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
         <v>37</v>
       </c>
@@ -5398,37 +5398,37 @@
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9">
-        <v>66048</v>
+        <v>68501</v>
       </c>
       <c r="F143" s="9">
-        <v>68501</v>
+        <v>114156</v>
       </c>
       <c r="G143" s="9">
-        <v>114156</v>
+        <v>86893</v>
       </c>
       <c r="H143" s="9">
-        <v>86893</v>
+        <v>103818</v>
       </c>
       <c r="I143" s="9">
-        <v>103818</v>
+        <v>139116</v>
       </c>
       <c r="J143" s="9">
-        <v>139116</v>
+        <v>105125</v>
       </c>
       <c r="K143" s="9">
-        <v>105125</v>
+        <v>371882</v>
       </c>
       <c r="L143" s="9">
-        <v>371882</v>
+        <v>449910</v>
       </c>
       <c r="M143" s="9">
-        <v>449910</v>
+        <v>532012</v>
       </c>
       <c r="N143" s="9">
-        <v>532012</v>
-      </c>
-    </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+        <v>365051</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
         <v>38</v>
       </c>
@@ -5437,37 +5437,37 @@
       </c>
       <c r="D144" s="11"/>
       <c r="E144" s="11">
-        <v>50635</v>
+        <v>75724</v>
       </c>
       <c r="F144" s="11">
-        <v>75724</v>
+        <v>80798</v>
       </c>
       <c r="G144" s="11">
-        <v>80798</v>
+        <v>60313</v>
       </c>
       <c r="H144" s="11">
-        <v>60313</v>
+        <v>97256</v>
       </c>
       <c r="I144" s="11">
-        <v>97256</v>
+        <v>128026</v>
       </c>
       <c r="J144" s="11">
-        <v>128026</v>
+        <v>122363</v>
       </c>
       <c r="K144" s="11">
-        <v>122363</v>
+        <v>126744</v>
       </c>
       <c r="L144" s="11">
-        <v>126744</v>
+        <v>195146</v>
       </c>
       <c r="M144" s="11">
-        <v>195146</v>
+        <v>256693</v>
       </c>
       <c r="N144" s="11">
-        <v>256693</v>
-      </c>
-    </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+        <v>224122</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>39</v>
       </c>
@@ -5476,37 +5476,37 @@
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9">
-        <v>50653</v>
+        <v>62916</v>
       </c>
       <c r="F145" s="9">
-        <v>62916</v>
+        <v>82852</v>
       </c>
       <c r="G145" s="9">
-        <v>82852</v>
+        <v>79977</v>
       </c>
       <c r="H145" s="9">
-        <v>79977</v>
+        <v>106091</v>
       </c>
       <c r="I145" s="9">
-        <v>106091</v>
+        <v>114892</v>
       </c>
       <c r="J145" s="9">
-        <v>114892</v>
+        <v>108973</v>
       </c>
       <c r="K145" s="9">
-        <v>108973</v>
+        <v>112487</v>
       </c>
       <c r="L145" s="9">
-        <v>112487</v>
+        <v>146135</v>
       </c>
       <c r="M145" s="9">
-        <v>146135</v>
+        <v>161834</v>
       </c>
       <c r="N145" s="9">
-        <v>161834</v>
-      </c>
-    </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+        <v>151630</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>41</v>
       </c>
@@ -5515,37 +5515,37 @@
       </c>
       <c r="D146" s="11"/>
       <c r="E146" s="11">
-        <v>29937</v>
+        <v>36644</v>
       </c>
       <c r="F146" s="11">
-        <v>36644</v>
+        <v>59475</v>
       </c>
       <c r="G146" s="11">
-        <v>59475</v>
+        <v>47321</v>
       </c>
       <c r="H146" s="11">
-        <v>47321</v>
+        <v>50476</v>
       </c>
       <c r="I146" s="11">
-        <v>50476</v>
+        <v>96973</v>
       </c>
       <c r="J146" s="11">
-        <v>96973</v>
+        <v>69250</v>
       </c>
       <c r="K146" s="11">
-        <v>69250</v>
+        <v>86961</v>
       </c>
       <c r="L146" s="11">
-        <v>86961</v>
+        <v>112212</v>
       </c>
       <c r="M146" s="11">
-        <v>112212</v>
+        <v>212945</v>
       </c>
       <c r="N146" s="11">
-        <v>212945</v>
-      </c>
-    </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+        <v>213959</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>42</v>
       </c>
@@ -5554,37 +5554,37 @@
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9">
-        <v>76398</v>
+        <v>80480</v>
       </c>
       <c r="F147" s="9">
-        <v>80480</v>
+        <v>87557</v>
       </c>
       <c r="G147" s="9">
-        <v>87557</v>
+        <v>64496</v>
       </c>
       <c r="H147" s="9">
-        <v>64496</v>
+        <v>139348</v>
       </c>
       <c r="I147" s="9">
-        <v>139348</v>
+        <v>188582</v>
       </c>
       <c r="J147" s="9">
-        <v>188582</v>
+        <v>177686</v>
       </c>
       <c r="K147" s="9">
-        <v>177686</v>
+        <v>176163</v>
       </c>
       <c r="L147" s="9">
-        <v>176163</v>
+        <v>199783</v>
       </c>
       <c r="M147" s="9">
-        <v>199783</v>
+        <v>255273</v>
       </c>
       <c r="N147" s="9">
-        <v>255273</v>
-      </c>
-    </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+        <v>262129</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>43</v>
       </c>
@@ -5593,74 +5593,74 @@
       </c>
       <c r="D148" s="11"/>
       <c r="E148" s="11">
-        <v>93583</v>
+        <v>120376</v>
       </c>
       <c r="F148" s="11">
-        <v>120376</v>
+        <v>117835</v>
       </c>
       <c r="G148" s="11">
-        <v>117835</v>
+        <v>126047</v>
       </c>
       <c r="H148" s="11">
-        <v>126047</v>
+        <v>154577</v>
       </c>
       <c r="I148" s="11">
-        <v>154577</v>
+        <v>200283</v>
       </c>
       <c r="J148" s="11">
-        <v>200283</v>
+        <v>234029</v>
       </c>
       <c r="K148" s="11">
-        <v>234029</v>
+        <v>241271</v>
       </c>
       <c r="L148" s="11">
-        <v>241271</v>
+        <v>264716</v>
       </c>
       <c r="M148" s="11">
-        <v>264716</v>
+        <v>372850</v>
       </c>
       <c r="N148" s="11">
-        <v>372850</v>
-      </c>
-    </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+        <v>604626</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C149" s="15"/>
       <c r="D149" s="15"/>
       <c r="E149" s="15">
-        <v>449772</v>
+        <v>546660</v>
       </c>
       <c r="F149" s="15">
-        <v>546660</v>
+        <v>719187</v>
       </c>
       <c r="G149" s="15">
-        <v>719187</v>
+        <v>595925</v>
       </c>
       <c r="H149" s="15">
-        <v>595925</v>
+        <v>794621</v>
       </c>
       <c r="I149" s="15">
-        <v>794621</v>
+        <v>1066500</v>
       </c>
       <c r="J149" s="15">
-        <v>1066500</v>
+        <v>971420</v>
       </c>
       <c r="K149" s="15">
-        <v>971420</v>
+        <v>1277603</v>
       </c>
       <c r="L149" s="15">
-        <v>1277603</v>
+        <v>1553301</v>
       </c>
       <c r="M149" s="15">
-        <v>1553301</v>
+        <v>2021584</v>
       </c>
       <c r="N149" s="15">
-        <v>2021584</v>
-      </c>
-    </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1968388</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -5675,7 +5675,7 @@
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -5690,7 +5690,7 @@
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -5705,7 +5705,7 @@
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
     </row>
-    <row r="153" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B153" s="7" t="s">
         <v>51</v>
       </c>
@@ -5742,7 +5742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -5757,7 +5757,7 @@
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
         <v>29</v>
       </c>
@@ -5786,17 +5786,17 @@
       <c r="K155" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L155" s="9" t="s">
-        <v>31</v>
+      <c r="L155" s="9">
+        <v>65656</v>
       </c>
       <c r="M155" s="9">
-        <v>65656</v>
-      </c>
-      <c r="N155" s="9">
         <v>24513</v>
       </c>
-    </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N155" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="10" t="s">
         <v>32</v>
       </c>
@@ -5807,35 +5807,35 @@
       <c r="E156" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F156" s="11" t="s">
-        <v>31</v>
+      <c r="F156" s="11">
+        <v>14432</v>
       </c>
       <c r="G156" s="11">
-        <v>14432</v>
+        <v>3862</v>
       </c>
       <c r="H156" s="11">
-        <v>3862</v>
+        <v>25127</v>
       </c>
       <c r="I156" s="11">
-        <v>25127</v>
+        <v>20641</v>
       </c>
       <c r="J156" s="11">
-        <v>20641</v>
+        <v>2519</v>
       </c>
       <c r="K156" s="11">
-        <v>2519</v>
+        <v>176215</v>
       </c>
       <c r="L156" s="11">
-        <v>176215</v>
+        <v>155341</v>
       </c>
       <c r="M156" s="11">
-        <v>155341</v>
-      </c>
-      <c r="N156" s="11">
         <v>137872</v>
       </c>
-    </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N156" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>33</v>
       </c>
@@ -5844,37 +5844,37 @@
       </c>
       <c r="D157" s="9"/>
       <c r="E157" s="9">
-        <v>7276</v>
+        <v>2752</v>
       </c>
       <c r="F157" s="9">
-        <v>2752</v>
+        <v>113942</v>
       </c>
       <c r="G157" s="9">
-        <v>113942</v>
+        <v>107196</v>
       </c>
       <c r="H157" s="9">
-        <v>107196</v>
+        <v>95711</v>
       </c>
       <c r="I157" s="9">
-        <v>95711</v>
+        <v>21516</v>
       </c>
       <c r="J157" s="9">
-        <v>21516</v>
+        <v>13161</v>
       </c>
       <c r="K157" s="9">
-        <v>13161</v>
+        <v>179</v>
       </c>
       <c r="L157" s="9">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="M157" s="9">
-        <v>196</v>
-      </c>
-      <c r="N157" s="9">
         <v>10496</v>
       </c>
-    </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N157" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>34</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
         <v>35</v>
       </c>
@@ -5922,25 +5922,25 @@
       </c>
       <c r="D159" s="9"/>
       <c r="E159" s="9">
-        <v>23112</v>
+        <v>19149</v>
       </c>
       <c r="F159" s="9">
-        <v>19149</v>
+        <v>13877</v>
       </c>
       <c r="G159" s="9">
-        <v>13877</v>
+        <v>9368</v>
       </c>
       <c r="H159" s="9">
-        <v>9368</v>
+        <v>4235</v>
       </c>
       <c r="I159" s="9">
-        <v>4235</v>
+        <v>0</v>
       </c>
       <c r="J159" s="9">
         <v>0</v>
       </c>
-      <c r="K159" s="9">
-        <v>0</v>
+      <c r="K159" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="L159" s="9" t="s">
         <v>31</v>
@@ -5952,7 +5952,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
         <v>36</v>
       </c>
@@ -5961,37 +5961,37 @@
       </c>
       <c r="D160" s="11"/>
       <c r="E160" s="11">
-        <v>29445</v>
+        <v>38016</v>
       </c>
       <c r="F160" s="11">
-        <v>38016</v>
+        <v>66730</v>
       </c>
       <c r="G160" s="11">
-        <v>66730</v>
+        <v>64405</v>
       </c>
       <c r="H160" s="11">
-        <v>64405</v>
+        <v>73672</v>
       </c>
       <c r="I160" s="11">
-        <v>73672</v>
+        <v>116648</v>
       </c>
       <c r="J160" s="11">
-        <v>116648</v>
+        <v>98221</v>
       </c>
       <c r="K160" s="11">
-        <v>98221</v>
+        <v>106849</v>
       </c>
       <c r="L160" s="11">
-        <v>106849</v>
+        <v>110027</v>
       </c>
       <c r="M160" s="11">
-        <v>110027</v>
+        <v>108144</v>
       </c>
       <c r="N160" s="11">
-        <v>108144</v>
-      </c>
-    </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+        <v>120243</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
         <v>37</v>
       </c>
@@ -6000,37 +6000,37 @@
       </c>
       <c r="D161" s="9"/>
       <c r="E161" s="9">
-        <v>6497</v>
+        <v>802</v>
       </c>
       <c r="F161" s="9">
-        <v>802</v>
+        <v>8043</v>
       </c>
       <c r="G161" s="9">
-        <v>8043</v>
+        <v>19939</v>
       </c>
       <c r="H161" s="9">
-        <v>19939</v>
+        <v>25826</v>
       </c>
       <c r="I161" s="9">
-        <v>25826</v>
+        <v>11614</v>
       </c>
       <c r="J161" s="9">
-        <v>11614</v>
+        <v>28</v>
       </c>
       <c r="K161" s="9">
-        <v>28</v>
+        <v>106741</v>
       </c>
       <c r="L161" s="9">
-        <v>106741</v>
+        <v>129528</v>
       </c>
       <c r="M161" s="9">
-        <v>129528</v>
+        <v>69930</v>
       </c>
       <c r="N161" s="9">
-        <v>69930</v>
-      </c>
-    </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+        <v>56574</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
         <v>38</v>
       </c>
@@ -6039,37 +6039,37 @@
       </c>
       <c r="D162" s="11"/>
       <c r="E162" s="11">
-        <v>2127</v>
+        <v>4001</v>
       </c>
       <c r="F162" s="11">
-        <v>4001</v>
+        <v>469</v>
       </c>
       <c r="G162" s="11">
-        <v>469</v>
+        <v>4158</v>
       </c>
       <c r="H162" s="11">
-        <v>4158</v>
+        <v>1842</v>
       </c>
       <c r="I162" s="11">
-        <v>1842</v>
+        <v>3805</v>
       </c>
       <c r="J162" s="11">
-        <v>3805</v>
+        <v>0</v>
       </c>
       <c r="K162" s="11">
-        <v>0</v>
+        <v>2494</v>
       </c>
       <c r="L162" s="11">
-        <v>2494</v>
+        <v>16190</v>
       </c>
       <c r="M162" s="11">
-        <v>16190</v>
+        <v>11143</v>
       </c>
       <c r="N162" s="11">
-        <v>11143</v>
-      </c>
-    </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
         <v>39</v>
       </c>
@@ -6078,37 +6078,37 @@
       </c>
       <c r="D163" s="9"/>
       <c r="E163" s="9">
-        <v>10492</v>
+        <v>12775</v>
       </c>
       <c r="F163" s="9">
-        <v>12775</v>
+        <v>18812</v>
       </c>
       <c r="G163" s="9">
-        <v>18812</v>
+        <v>23457</v>
       </c>
       <c r="H163" s="9">
-        <v>23457</v>
+        <v>24458</v>
       </c>
       <c r="I163" s="9">
-        <v>24458</v>
+        <v>29617</v>
       </c>
       <c r="J163" s="9">
-        <v>29617</v>
+        <v>29652</v>
       </c>
       <c r="K163" s="9">
-        <v>29652</v>
+        <v>33121</v>
       </c>
       <c r="L163" s="9">
-        <v>33121</v>
+        <v>33459</v>
       </c>
       <c r="M163" s="9">
-        <v>33459</v>
+        <v>37775</v>
       </c>
       <c r="N163" s="9">
-        <v>37775</v>
-      </c>
-    </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+        <v>46617</v>
+      </c>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
         <v>41</v>
       </c>
@@ -6117,37 +6117,37 @@
       </c>
       <c r="D164" s="11"/>
       <c r="E164" s="11">
-        <v>4279</v>
+        <v>5951</v>
       </c>
       <c r="F164" s="11">
-        <v>5951</v>
+        <v>47874</v>
       </c>
       <c r="G164" s="11">
-        <v>47874</v>
+        <v>26868</v>
       </c>
       <c r="H164" s="11">
-        <v>26868</v>
+        <v>146</v>
       </c>
       <c r="I164" s="11">
-        <v>146</v>
+        <v>96966</v>
       </c>
       <c r="J164" s="11">
-        <v>96966</v>
+        <v>252585</v>
       </c>
       <c r="K164" s="11">
-        <v>252585</v>
+        <v>215150</v>
       </c>
       <c r="L164" s="11">
-        <v>215150</v>
+        <v>137267</v>
       </c>
       <c r="M164" s="11">
-        <v>137267</v>
+        <v>515534</v>
       </c>
       <c r="N164" s="11">
-        <v>515534</v>
-      </c>
-    </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+        <v>375678</v>
+      </c>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
         <v>42</v>
       </c>
@@ -6156,37 +6156,37 @@
       </c>
       <c r="D165" s="9"/>
       <c r="E165" s="9">
-        <v>218172</v>
+        <v>122569</v>
       </c>
       <c r="F165" s="9">
-        <v>122569</v>
+        <v>85073</v>
       </c>
       <c r="G165" s="9">
-        <v>85073</v>
+        <v>66280</v>
       </c>
       <c r="H165" s="9">
-        <v>66280</v>
+        <v>130357</v>
       </c>
       <c r="I165" s="9">
-        <v>130357</v>
+        <v>55950</v>
       </c>
       <c r="J165" s="9">
-        <v>55950</v>
+        <v>1261</v>
       </c>
       <c r="K165" s="9">
-        <v>1261</v>
+        <v>372515</v>
       </c>
       <c r="L165" s="9">
-        <v>372515</v>
+        <v>173222</v>
       </c>
       <c r="M165" s="9">
-        <v>173222</v>
+        <v>160929</v>
       </c>
       <c r="N165" s="9">
-        <v>160929</v>
-      </c>
-    </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+        <v>396246</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
         <v>43</v>
       </c>
@@ -6195,74 +6195,74 @@
       </c>
       <c r="D166" s="11"/>
       <c r="E166" s="11">
-        <v>68538</v>
+        <v>72603</v>
       </c>
       <c r="F166" s="11">
-        <v>72603</v>
+        <v>79592</v>
       </c>
       <c r="G166" s="11">
-        <v>79592</v>
+        <v>124019</v>
       </c>
       <c r="H166" s="11">
-        <v>124019</v>
+        <v>113168</v>
       </c>
       <c r="I166" s="11">
-        <v>113168</v>
+        <v>139675</v>
       </c>
       <c r="J166" s="11">
-        <v>139675</v>
+        <v>115222</v>
       </c>
       <c r="K166" s="11">
-        <v>115222</v>
+        <v>101715</v>
       </c>
       <c r="L166" s="11">
-        <v>101715</v>
+        <v>105355</v>
       </c>
       <c r="M166" s="11">
-        <v>105355</v>
+        <v>134107</v>
       </c>
       <c r="N166" s="11">
-        <v>134107</v>
-      </c>
-    </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+        <v>194753</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C167" s="15"/>
       <c r="D167" s="15"/>
       <c r="E167" s="15">
-        <v>369938</v>
+        <v>278618</v>
       </c>
       <c r="F167" s="15">
-        <v>278618</v>
+        <v>448844</v>
       </c>
       <c r="G167" s="15">
-        <v>448844</v>
+        <v>449552</v>
       </c>
       <c r="H167" s="15">
-        <v>449552</v>
+        <v>494542</v>
       </c>
       <c r="I167" s="15">
-        <v>494542</v>
+        <v>496432</v>
       </c>
       <c r="J167" s="15">
-        <v>496432</v>
+        <v>512649</v>
       </c>
       <c r="K167" s="15">
-        <v>512649</v>
+        <v>1114979</v>
       </c>
       <c r="L167" s="15">
-        <v>1114979</v>
+        <v>926241</v>
       </c>
       <c r="M167" s="15">
-        <v>926241</v>
+        <v>1210443</v>
       </c>
       <c r="N167" s="15">
-        <v>1210443</v>
-      </c>
-    </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1192596</v>
+      </c>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -6277,7 +6277,7 @@
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -6292,7 +6292,7 @@
       <c r="M169" s="1"/>
       <c r="N169" s="1"/>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -6307,7 +6307,7 @@
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
     </row>
-    <row r="171" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B171" s="7" t="s">
         <v>52</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -6359,7 +6359,7 @@
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="8" t="s">
         <v>29</v>
       </c>
@@ -6391,14 +6391,14 @@
       <c r="L173" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M173" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N173" s="9">
+      <c r="M173" s="9">
         <v>746090909</v>
       </c>
-    </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N173" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="10" t="s">
         <v>32</v>
       </c>
@@ -6412,32 +6412,32 @@
       <c r="F174" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G174" s="11" t="s">
-        <v>31</v>
+      <c r="G174" s="11">
+        <v>147265306</v>
       </c>
       <c r="H174" s="11">
-        <v>147265306</v>
+        <v>148538462</v>
       </c>
       <c r="I174" s="11">
-        <v>148538462</v>
+        <v>180769784</v>
       </c>
       <c r="J174" s="11">
-        <v>180769784</v>
+        <v>192906542</v>
       </c>
       <c r="K174" s="11">
-        <v>192906542</v>
+        <v>179928571</v>
       </c>
       <c r="L174" s="11">
-        <v>179928571</v>
+        <v>167186907</v>
       </c>
       <c r="M174" s="11">
-        <v>167186907</v>
-      </c>
-      <c r="N174" s="11">
         <v>164034847</v>
       </c>
-    </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N174" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="8" t="s">
         <v>33</v>
       </c>
@@ -6446,37 +6446,37 @@
       </c>
       <c r="D175" s="9"/>
       <c r="E175" s="9">
-        <v>160052632</v>
+        <v>158173913</v>
       </c>
       <c r="F175" s="9">
-        <v>158173913</v>
+        <v>161882353</v>
       </c>
       <c r="G175" s="9">
-        <v>161882353</v>
+        <v>401204225</v>
       </c>
       <c r="H175" s="9">
-        <v>401204225</v>
+        <v>401483146</v>
       </c>
       <c r="I175" s="9">
-        <v>401483146</v>
+        <v>400464435</v>
       </c>
       <c r="J175" s="9">
-        <v>400464435</v>
+        <v>421882353</v>
       </c>
       <c r="K175" s="9">
-        <v>421882353</v>
+        <v>424548387</v>
       </c>
       <c r="L175" s="9">
-        <v>424548387</v>
-      </c>
-      <c r="M175" s="9">
         <v>179000000</v>
       </c>
+      <c r="M175" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="N175" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="10" t="s">
         <v>34</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B177" s="8" t="s">
         <v>35</v>
       </c>
@@ -6524,23 +6524,23 @@
       </c>
       <c r="D177" s="9"/>
       <c r="E177" s="9">
-        <v>1953857143</v>
+        <v>1926000000</v>
       </c>
       <c r="F177" s="9">
-        <v>1926000000</v>
+        <v>1914900000</v>
       </c>
       <c r="G177" s="9">
-        <v>1914900000</v>
+        <v>1982428571</v>
       </c>
       <c r="H177" s="9">
-        <v>1982428571</v>
+        <v>1873600000</v>
       </c>
       <c r="I177" s="9">
-        <v>1873600000</v>
-      </c>
-      <c r="J177" s="9">
         <v>2117500000</v>
       </c>
+      <c r="J177" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="K177" s="9" t="s">
         <v>31</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B178" s="10" t="s">
         <v>36</v>
       </c>
@@ -6563,37 +6563,37 @@
       </c>
       <c r="D178" s="11"/>
       <c r="E178" s="11">
-        <v>223302521</v>
+        <v>256043478</v>
       </c>
       <c r="F178" s="11">
-        <v>256043478</v>
+        <v>330573913</v>
       </c>
       <c r="G178" s="11">
-        <v>330573913</v>
+        <v>433311688</v>
       </c>
       <c r="H178" s="11">
-        <v>433311688</v>
+        <v>441130137</v>
       </c>
       <c r="I178" s="11">
-        <v>441130137</v>
+        <v>460450000</v>
       </c>
       <c r="J178" s="11">
-        <v>460450000</v>
+        <v>706957576</v>
       </c>
       <c r="K178" s="11">
-        <v>706957576</v>
+        <v>564488506</v>
       </c>
       <c r="L178" s="11">
-        <v>564488506</v>
+        <v>590325967</v>
       </c>
       <c r="M178" s="11">
-        <v>590325967</v>
+        <v>564241026</v>
       </c>
       <c r="N178" s="11">
-        <v>564241026</v>
-      </c>
-    </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
+        <v>456303797</v>
+      </c>
+    </row>
+    <row r="179" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B179" s="8" t="s">
         <v>37</v>
       </c>
@@ -6602,37 +6602,37 @@
       </c>
       <c r="D179" s="9"/>
       <c r="E179" s="9">
-        <v>31241935</v>
+        <v>30078704</v>
       </c>
       <c r="F179" s="9">
-        <v>30078704</v>
+        <v>34869565</v>
       </c>
       <c r="G179" s="9">
-        <v>34869565</v>
+        <v>35431718</v>
       </c>
       <c r="H179" s="9">
-        <v>35431718</v>
+        <v>38867446</v>
       </c>
       <c r="I179" s="9">
-        <v>38867446</v>
+        <v>40164852</v>
       </c>
       <c r="J179" s="9">
-        <v>40164852</v>
+        <v>40750877</v>
       </c>
       <c r="K179" s="9">
-        <v>40750877</v>
+        <v>28000000</v>
       </c>
       <c r="L179" s="9">
-        <v>28000000</v>
+        <v>157203240</v>
       </c>
       <c r="M179" s="9">
-        <v>157203240</v>
+        <v>156246080</v>
       </c>
       <c r="N179" s="9">
-        <v>156246080</v>
-      </c>
-    </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+        <v>155400000</v>
+      </c>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B180" s="10" t="s">
         <v>38</v>
       </c>
@@ -6641,26 +6641,26 @@
       </c>
       <c r="D180" s="11"/>
       <c r="E180" s="11">
-        <v>119000000</v>
+        <v>141800000</v>
       </c>
       <c r="F180" s="11">
-        <v>141800000</v>
+        <v>166708333</v>
       </c>
       <c r="G180" s="11">
-        <v>166708333</v>
+        <v>156333333</v>
       </c>
       <c r="H180" s="11">
-        <v>156333333</v>
+        <v>166320000</v>
       </c>
       <c r="I180" s="11">
-        <v>166320000</v>
+        <v>230250000</v>
       </c>
       <c r="J180" s="11">
-        <v>230250000</v>
-      </c>
-      <c r="K180" s="11">
         <v>190250000</v>
       </c>
+      <c r="K180" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="L180" s="11" t="s">
         <v>31</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B181" s="8" t="s">
         <v>39</v>
       </c>
@@ -6680,37 +6680,37 @@
       </c>
       <c r="D181" s="9"/>
       <c r="E181" s="9">
-        <v>15957</v>
+        <v>17626</v>
       </c>
       <c r="F181" s="9">
-        <v>17626</v>
+        <v>22375</v>
       </c>
       <c r="G181" s="9">
-        <v>22375</v>
+        <v>28568</v>
       </c>
       <c r="H181" s="9">
-        <v>28568</v>
+        <v>31844</v>
       </c>
       <c r="I181" s="9">
-        <v>31844</v>
+        <v>33243</v>
       </c>
       <c r="J181" s="9">
-        <v>33243</v>
+        <v>36350</v>
       </c>
       <c r="K181" s="9">
-        <v>36350</v>
+        <v>38025</v>
       </c>
       <c r="L181" s="9">
-        <v>38025</v>
+        <v>40755</v>
       </c>
       <c r="M181" s="9">
-        <v>40755</v>
+        <v>42372</v>
       </c>
       <c r="N181" s="9">
-        <v>42372</v>
-      </c>
-    </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+        <v>48838</v>
+      </c>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B182" s="10" t="s">
         <v>41</v>
       </c>
@@ -6719,37 +6719,37 @@
       </c>
       <c r="D182" s="11"/>
       <c r="E182" s="11">
-        <v>73710280</v>
+        <v>75070175</v>
       </c>
       <c r="F182" s="11">
-        <v>75070175</v>
+        <v>102603448</v>
       </c>
       <c r="G182" s="11">
-        <v>102603448</v>
+        <v>82399312</v>
       </c>
       <c r="H182" s="11">
-        <v>82399312</v>
+        <v>90161074</v>
       </c>
       <c r="I182" s="11">
-        <v>90161074</v>
+        <v>146000000</v>
       </c>
       <c r="J182" s="11">
-        <v>146000000</v>
+        <v>147589041</v>
       </c>
       <c r="K182" s="11">
-        <v>147589041</v>
+        <v>141108939</v>
       </c>
       <c r="L182" s="11">
-        <v>141108939</v>
+        <v>164487768</v>
       </c>
       <c r="M182" s="11">
-        <v>164487768</v>
+        <v>175085459</v>
       </c>
       <c r="N182" s="11">
-        <v>175085459</v>
-      </c>
-    </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
+        <v>435785292</v>
+      </c>
+    </row>
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B183" s="8" t="s">
         <v>42</v>
       </c>
@@ -6758,37 +6758,37 @@
       </c>
       <c r="D183" s="9"/>
       <c r="E183" s="9">
-        <v>39448449</v>
+        <v>68650724</v>
       </c>
       <c r="F183" s="9">
-        <v>68650724</v>
+        <v>68666106</v>
       </c>
       <c r="G183" s="9">
-        <v>68666106</v>
+        <v>56005925</v>
       </c>
       <c r="H183" s="9">
-        <v>56005925</v>
+        <v>86077922</v>
       </c>
       <c r="I183" s="9">
-        <v>86077922</v>
+        <v>111607021</v>
       </c>
       <c r="J183" s="9">
-        <v>111607021</v>
+        <v>119042553</v>
       </c>
       <c r="K183" s="9">
-        <v>119042553</v>
+        <v>114636364</v>
       </c>
       <c r="L183" s="9">
-        <v>114636364</v>
+        <v>138121987</v>
       </c>
       <c r="M183" s="9">
-        <v>138121987</v>
+        <v>138245810</v>
       </c>
       <c r="N183" s="9">
-        <v>138245810</v>
-      </c>
-    </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
+        <v>179608259</v>
+      </c>
+    </row>
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B184" s="10" t="s">
         <v>43</v>
       </c>
@@ -6797,37 +6797,37 @@
       </c>
       <c r="D184" s="11"/>
       <c r="E184" s="11">
-        <v>177300912</v>
+        <v>225453947</v>
       </c>
       <c r="F184" s="11">
-        <v>225453947</v>
+        <v>349052885</v>
       </c>
       <c r="G184" s="11">
-        <v>349052885</v>
+        <v>289425455</v>
       </c>
       <c r="H184" s="11">
-        <v>289425455</v>
+        <v>473354962</v>
       </c>
       <c r="I184" s="11">
-        <v>473354962</v>
+        <v>420698885</v>
       </c>
       <c r="J184" s="11">
-        <v>420698885</v>
+        <v>454967427</v>
       </c>
       <c r="K184" s="11">
-        <v>454967427</v>
+        <v>411507143</v>
       </c>
       <c r="L184" s="11">
-        <v>411507143</v>
+        <v>521615385</v>
       </c>
       <c r="M184" s="11">
-        <v>521615385</v>
+        <v>526775000</v>
       </c>
       <c r="N184" s="11">
-        <v>526775000</v>
-      </c>
-    </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
+        <v>803035928</v>
+      </c>
+    </row>
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -6842,7 +6842,7 @@
       <c r="M185" s="1"/>
       <c r="N185" s="1"/>
     </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -6857,7 +6857,7 @@
       <c r="M186" s="1"/>
       <c r="N186" s="1"/>
     </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -6872,7 +6872,7 @@
       <c r="M187" s="1"/>
       <c r="N187" s="1"/>
     </row>
-    <row r="188" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B188" s="7" t="s">
         <v>55</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -6924,7 +6924,7 @@
       <c r="M189" s="1"/>
       <c r="N189" s="1"/>
     </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B190" s="8" t="s">
         <v>29</v>
       </c>
@@ -6956,14 +6956,14 @@
       <c r="L190" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M190" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N190" s="9">
+      <c r="M190" s="9">
         <v>1209500000</v>
       </c>
-    </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N190" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="191" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B191" s="10" t="s">
         <v>32</v>
       </c>
@@ -6974,35 +6974,35 @@
       <c r="E191" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F191" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G191" s="11">
+      <c r="F191" s="11">
         <v>170076923</v>
       </c>
-      <c r="H191" s="11" t="s">
-        <v>31</v>
+      <c r="G191" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H191" s="11">
+        <v>183646465</v>
       </c>
       <c r="I191" s="11">
-        <v>183646465</v>
+        <v>201000000</v>
       </c>
       <c r="J191" s="11">
-        <v>201000000</v>
+        <v>1789000000</v>
       </c>
       <c r="K191" s="11">
-        <v>1789000000</v>
+        <v>169360963</v>
       </c>
       <c r="L191" s="11">
-        <v>169360963</v>
-      </c>
-      <c r="M191" s="11">
         <v>539111111</v>
       </c>
+      <c r="M191" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="N191" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B192" s="8" t="s">
         <v>33</v>
       </c>
@@ -7013,35 +7013,35 @@
       <c r="E192" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F192" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G192" s="9">
+      <c r="F192" s="9">
         <v>407932660</v>
       </c>
+      <c r="G192" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="H192" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I192" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J192" s="9">
+      <c r="I192" s="9">
         <v>422753623</v>
       </c>
+      <c r="J192" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="K192" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L192" s="9" t="s">
-        <v>31</v>
+      <c r="L192" s="9">
+        <v>905705882</v>
       </c>
       <c r="M192" s="9">
-        <v>905705882</v>
-      </c>
-      <c r="N192" s="9">
         <v>799350000</v>
       </c>
-    </row>
-    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N192" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="193" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B193" s="10" t="s">
         <v>34</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B194" s="8" t="s">
         <v>35</v>
       </c>
@@ -7119,7 +7119,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B195" s="10" t="s">
         <v>36</v>
       </c>
@@ -7128,37 +7128,37 @@
       </c>
       <c r="D195" s="11"/>
       <c r="E195" s="11">
-        <v>529583333</v>
+        <v>689885135</v>
       </c>
       <c r="F195" s="11">
-        <v>689885135</v>
+        <v>717461140</v>
       </c>
       <c r="G195" s="11">
-        <v>717461140</v>
+        <v>820984615</v>
       </c>
       <c r="H195" s="11">
-        <v>820984615</v>
+        <v>705304094</v>
       </c>
       <c r="I195" s="11">
-        <v>705304094</v>
+        <v>1041420792</v>
       </c>
       <c r="J195" s="11">
-        <v>1041420792</v>
+        <v>707094937</v>
       </c>
       <c r="K195" s="11">
-        <v>707094937</v>
+        <v>900726115</v>
       </c>
       <c r="L195" s="11">
-        <v>900726115</v>
+        <v>859260606</v>
       </c>
       <c r="M195" s="11">
-        <v>859260606</v>
+        <v>734087336</v>
       </c>
       <c r="N195" s="11">
-        <v>734087336</v>
-      </c>
-    </row>
-    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1746923077</v>
+      </c>
+    </row>
+    <row r="196" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B196" s="8" t="s">
         <v>37</v>
       </c>
@@ -7167,37 +7167,37 @@
       </c>
       <c r="D196" s="9"/>
       <c r="E196" s="9">
-        <v>30118860</v>
+        <v>33730397</v>
       </c>
       <c r="F196" s="9">
-        <v>33730397</v>
+        <v>35631641</v>
       </c>
       <c r="G196" s="9">
-        <v>35631641</v>
+        <v>38409409</v>
       </c>
       <c r="H196" s="9">
-        <v>38409409</v>
+        <v>39661967</v>
       </c>
       <c r="I196" s="9">
-        <v>39661967</v>
+        <v>40408929</v>
       </c>
       <c r="J196" s="9">
-        <v>40408929</v>
+        <v>38241619</v>
       </c>
       <c r="K196" s="9">
-        <v>38241619</v>
+        <v>145824193</v>
       </c>
       <c r="L196" s="9">
-        <v>145824193</v>
+        <v>156833776</v>
       </c>
       <c r="M196" s="9">
-        <v>156833776</v>
+        <v>155246139</v>
       </c>
       <c r="N196" s="9">
-        <v>155246139</v>
-      </c>
-    </row>
-    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
+        <v>140341181</v>
+      </c>
+    </row>
+    <row r="197" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B197" s="10" t="s">
         <v>38</v>
       </c>
@@ -7206,37 +7206,37 @@
       </c>
       <c r="D197" s="11"/>
       <c r="E197" s="11">
-        <v>111711752</v>
+        <v>147244782</v>
       </c>
       <c r="F197" s="11">
-        <v>147244782</v>
+        <v>180528037</v>
       </c>
       <c r="G197" s="11">
-        <v>180528037</v>
+        <v>138233261</v>
       </c>
       <c r="H197" s="11">
-        <v>138233261</v>
+        <v>197791667</v>
       </c>
       <c r="I197" s="11">
-        <v>197791667</v>
+        <v>223348797</v>
       </c>
       <c r="J197" s="11">
-        <v>223348797</v>
+        <v>226688337</v>
       </c>
       <c r="K197" s="11">
-        <v>226688337</v>
+        <v>264831967</v>
       </c>
       <c r="L197" s="11">
-        <v>264831967</v>
+        <v>370287234</v>
       </c>
       <c r="M197" s="11">
-        <v>370287234</v>
+        <v>422224832</v>
       </c>
       <c r="N197" s="11">
-        <v>422224832</v>
-      </c>
-    </row>
-    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
+        <v>411190840</v>
+      </c>
+    </row>
+    <row r="198" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B198" s="8" t="s">
         <v>39</v>
       </c>
@@ -7245,37 +7245,37 @@
       </c>
       <c r="D198" s="9"/>
       <c r="E198" s="9">
-        <v>23835</v>
+        <v>31583</v>
       </c>
       <c r="F198" s="9">
-        <v>31583</v>
+        <v>35510</v>
       </c>
       <c r="G198" s="9">
-        <v>35510</v>
+        <v>39021</v>
       </c>
       <c r="H198" s="9">
-        <v>39021</v>
+        <v>41144</v>
       </c>
       <c r="I198" s="9">
-        <v>41144</v>
+        <v>43285</v>
       </c>
       <c r="J198" s="9">
-        <v>43285</v>
+        <v>49867</v>
       </c>
       <c r="K198" s="9">
-        <v>49867</v>
+        <v>53252</v>
       </c>
       <c r="L198" s="9">
-        <v>53252</v>
+        <v>62443</v>
       </c>
       <c r="M198" s="9">
-        <v>62443</v>
+        <v>61996</v>
       </c>
       <c r="N198" s="9">
-        <v>61996</v>
-      </c>
-    </row>
-    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
+        <v>64831</v>
+      </c>
+    </row>
+    <row r="199" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B199" s="10" t="s">
         <v>41</v>
       </c>
@@ -7284,37 +7284,37 @@
       </c>
       <c r="D199" s="11"/>
       <c r="E199" s="11">
-        <v>80027356</v>
+        <v>92774818</v>
       </c>
       <c r="F199" s="11">
-        <v>92774818</v>
+        <v>88325784</v>
       </c>
       <c r="G199" s="11">
-        <v>88325784</v>
+        <v>124127358</v>
       </c>
       <c r="H199" s="11">
-        <v>124127358</v>
+        <v>130516484</v>
       </c>
       <c r="I199" s="11">
-        <v>130516484</v>
+        <v>145490240</v>
       </c>
       <c r="J199" s="11">
-        <v>145490240</v>
+        <v>138636868</v>
       </c>
       <c r="K199" s="11">
-        <v>138636868</v>
+        <v>582658824</v>
       </c>
       <c r="L199" s="11">
-        <v>582658824</v>
+        <v>817357143</v>
       </c>
       <c r="M199" s="11">
-        <v>817357143</v>
+        <v>561988593</v>
       </c>
       <c r="N199" s="11">
-        <v>561988593</v>
-      </c>
-    </row>
-    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
+        <v>320792208</v>
+      </c>
+    </row>
+    <row r="200" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B200" s="8" t="s">
         <v>42</v>
       </c>
@@ -7323,37 +7323,37 @@
       </c>
       <c r="D200" s="9"/>
       <c r="E200" s="9">
-        <v>78275775</v>
+        <v>68429864</v>
       </c>
       <c r="F200" s="9">
-        <v>68429864</v>
+        <v>41033607</v>
       </c>
       <c r="G200" s="9">
-        <v>41033607</v>
+        <v>117488432</v>
       </c>
       <c r="H200" s="9">
-        <v>117488432</v>
+        <v>118615160</v>
       </c>
       <c r="I200" s="9">
-        <v>118615160</v>
+        <v>128575450</v>
       </c>
       <c r="J200" s="9">
-        <v>128575450</v>
+        <v>132682848</v>
       </c>
       <c r="K200" s="9">
-        <v>132682848</v>
+        <v>137645713</v>
       </c>
       <c r="L200" s="9">
-        <v>137645713</v>
+        <v>-490000000</v>
       </c>
       <c r="M200" s="9">
-        <v>-490000000</v>
+        <v>183519637</v>
       </c>
       <c r="N200" s="9">
-        <v>183519637</v>
-      </c>
-    </row>
-    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
+        <v>184102887</v>
+      </c>
+    </row>
+    <row r="201" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B201" s="10" t="s">
         <v>43</v>
       </c>
@@ -7362,37 +7362,37 @@
       </c>
       <c r="D201" s="11"/>
       <c r="E201" s="11">
-        <v>173270451</v>
+        <v>233911654</v>
       </c>
       <c r="F201" s="11">
-        <v>233911654</v>
+        <v>249674286</v>
       </c>
       <c r="G201" s="11">
-        <v>249674286</v>
+        <v>347906122</v>
       </c>
       <c r="H201" s="11">
-        <v>347906122</v>
+        <v>248660900</v>
       </c>
       <c r="I201" s="11">
-        <v>248660900</v>
+        <v>334005891</v>
       </c>
       <c r="J201" s="11">
-        <v>334005891</v>
+        <v>388823748</v>
       </c>
       <c r="K201" s="11">
-        <v>388823748</v>
+        <v>475498956</v>
       </c>
       <c r="L201" s="11">
-        <v>475498956</v>
+        <v>469379965</v>
       </c>
       <c r="M201" s="11">
-        <v>469379965</v>
+        <v>585425656</v>
       </c>
       <c r="N201" s="11">
-        <v>585425656</v>
-      </c>
-    </row>
-    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
+        <v>452565986</v>
+      </c>
+    </row>
+    <row r="202" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -7407,7 +7407,7 @@
       <c r="M202" s="1"/>
       <c r="N202" s="1"/>
     </row>
-    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -7422,7 +7422,7 @@
       <c r="M203" s="1"/>
       <c r="N203" s="1"/>
     </row>
-    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -7437,7 +7437,7 @@
       <c r="M204" s="1"/>
       <c r="N204" s="1"/>
     </row>
-    <row r="205" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B205" s="7" t="s">
         <v>56</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -7489,7 +7489,7 @@
       <c r="M206" s="1"/>
       <c r="N206" s="1"/>
     </row>
-    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B207" s="8" t="s">
         <v>29</v>
       </c>
@@ -7521,14 +7521,14 @@
       <c r="L207" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M207" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N207" s="9">
+      <c r="M207" s="9">
         <v>186846154</v>
       </c>
-    </row>
-    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N207" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="208" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B208" s="10" t="s">
         <v>32</v>
       </c>
@@ -7539,35 +7539,35 @@
       <c r="E208" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F208" s="11" t="s">
-        <v>31</v>
+      <c r="F208" s="11">
+        <v>171733333</v>
       </c>
       <c r="G208" s="11">
-        <v>171733333</v>
+        <v>146805556</v>
       </c>
       <c r="H208" s="11">
-        <v>146805556</v>
+        <v>177611765</v>
       </c>
       <c r="I208" s="11">
-        <v>177611765</v>
+        <v>179847826</v>
       </c>
       <c r="J208" s="11">
-        <v>179847826</v>
+        <v>177532609</v>
       </c>
       <c r="K208" s="11">
-        <v>177532609</v>
+        <v>199109756</v>
       </c>
       <c r="L208" s="11">
-        <v>199109756</v>
+        <v>163489796</v>
       </c>
       <c r="M208" s="11">
-        <v>163489796</v>
-      </c>
-      <c r="N208" s="11">
         <v>166371429</v>
       </c>
-    </row>
-    <row r="209" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N208" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="209" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B209" s="8" t="s">
         <v>33</v>
       </c>
@@ -7576,37 +7576,37 @@
       </c>
       <c r="D209" s="9"/>
       <c r="E209" s="9">
-        <v>162933333</v>
+        <v>156000000</v>
       </c>
       <c r="F209" s="9">
-        <v>156000000</v>
+        <v>332200000</v>
       </c>
       <c r="G209" s="9">
-        <v>332200000</v>
+        <v>396823529</v>
       </c>
       <c r="H209" s="9">
-        <v>396823529</v>
+        <v>410178571</v>
       </c>
       <c r="I209" s="9">
-        <v>410178571</v>
+        <v>435666667</v>
       </c>
       <c r="J209" s="9">
-        <v>435666667</v>
+        <v>375650000</v>
       </c>
       <c r="K209" s="9">
-        <v>375650000</v>
+        <v>432733333</v>
       </c>
       <c r="L209" s="9">
-        <v>432733333</v>
+        <v>879342857</v>
       </c>
       <c r="M209" s="9">
-        <v>879342857</v>
-      </c>
-      <c r="N209" s="9">
         <v>818717391</v>
       </c>
-    </row>
-    <row r="210" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N209" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="210" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B210" s="10" t="s">
         <v>34</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="211" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B211" s="8" t="s">
         <v>35</v>
       </c>
@@ -7654,23 +7654,23 @@
       </c>
       <c r="D211" s="9"/>
       <c r="E211" s="9">
-        <v>2121000000</v>
+        <v>1981500000</v>
       </c>
       <c r="F211" s="9">
-        <v>1981500000</v>
+        <v>1757333333</v>
       </c>
       <c r="G211" s="9">
-        <v>1757333333</v>
+        <v>2254500000</v>
       </c>
       <c r="H211" s="9">
-        <v>2254500000</v>
+        <v>1711000000</v>
       </c>
       <c r="I211" s="9">
-        <v>1711000000</v>
-      </c>
-      <c r="J211" s="9">
         <v>2117500000</v>
       </c>
+      <c r="J211" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="K211" s="9" t="s">
         <v>31</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="212" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B212" s="10" t="s">
         <v>36</v>
       </c>
@@ -7693,37 +7693,37 @@
       </c>
       <c r="D212" s="11"/>
       <c r="E212" s="11">
-        <v>495864865</v>
+        <v>631972973</v>
       </c>
       <c r="F212" s="11">
-        <v>631972973</v>
+        <v>712701299</v>
       </c>
       <c r="G212" s="11">
-        <v>712701299</v>
+        <v>790239130</v>
       </c>
       <c r="H212" s="11">
-        <v>790239130</v>
+        <v>709171975</v>
       </c>
       <c r="I212" s="11">
-        <v>709171975</v>
+        <v>849700508</v>
       </c>
       <c r="J212" s="11">
-        <v>849700508</v>
+        <v>873476510</v>
       </c>
       <c r="K212" s="11">
-        <v>873476510</v>
+        <v>885240000</v>
       </c>
       <c r="L212" s="11">
-        <v>885240000</v>
+        <v>917880795</v>
       </c>
       <c r="M212" s="11">
-        <v>917880795</v>
+        <v>909032086</v>
       </c>
       <c r="N212" s="11">
-        <v>909032086</v>
-      </c>
-    </row>
-    <row r="213" spans="2:14" x14ac:dyDescent="0.25">
+        <v>999122449</v>
+      </c>
+    </row>
+    <row r="213" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B213" s="8" t="s">
         <v>37</v>
       </c>
@@ -7732,37 +7732,37 @@
       </c>
       <c r="D213" s="9"/>
       <c r="E213" s="9">
-        <v>30186472</v>
+        <v>33333820</v>
       </c>
       <c r="F213" s="9">
-        <v>33333820</v>
+        <v>35640337</v>
       </c>
       <c r="G213" s="9">
-        <v>35640337</v>
+        <v>38010936</v>
       </c>
       <c r="H213" s="9">
-        <v>38010936</v>
+        <v>39384674</v>
       </c>
       <c r="I213" s="9">
-        <v>39384674</v>
+        <v>40335170</v>
       </c>
       <c r="J213" s="9">
-        <v>40335170</v>
+        <v>38507326</v>
       </c>
       <c r="K213" s="9">
-        <v>38507326</v>
+        <v>142811828</v>
       </c>
       <c r="L213" s="9">
-        <v>142811828</v>
+        <v>157091480</v>
       </c>
       <c r="M213" s="9">
-        <v>157091480</v>
+        <v>155468147</v>
       </c>
       <c r="N213" s="9">
-        <v>155468147</v>
-      </c>
-    </row>
-    <row r="214" spans="2:14" x14ac:dyDescent="0.25">
+        <v>142877104</v>
+      </c>
+    </row>
+    <row r="214" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B214" s="10" t="s">
         <v>38</v>
       </c>
@@ -7771,37 +7771,37 @@
       </c>
       <c r="D214" s="11"/>
       <c r="E214" s="11">
-        <v>111041667</v>
+        <v>146185328</v>
       </c>
       <c r="F214" s="11">
-        <v>146185328</v>
+        <v>179951002</v>
       </c>
       <c r="G214" s="11">
-        <v>179951002</v>
+        <v>136764172</v>
       </c>
       <c r="H214" s="11">
-        <v>136764172</v>
+        <v>195686117</v>
       </c>
       <c r="I214" s="11">
-        <v>195686117</v>
+        <v>224607018</v>
       </c>
       <c r="J214" s="11">
-        <v>224607018</v>
+        <v>225346225</v>
       </c>
       <c r="K214" s="11">
-        <v>225346225</v>
+        <v>264050000</v>
       </c>
       <c r="L214" s="11">
-        <v>264050000</v>
+        <v>364758879</v>
       </c>
       <c r="M214" s="11">
-        <v>364758879</v>
+        <v>422192434</v>
       </c>
       <c r="N214" s="11">
-        <v>422192434</v>
-      </c>
-    </row>
-    <row r="215" spans="2:14" x14ac:dyDescent="0.25">
+        <v>412747698</v>
+      </c>
+    </row>
+    <row r="215" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B215" s="8" t="s">
         <v>39</v>
       </c>
@@ -7810,37 +7810,37 @@
       </c>
       <c r="D215" s="9"/>
       <c r="E215" s="9">
-        <v>23475</v>
+        <v>30122</v>
       </c>
       <c r="F215" s="9">
-        <v>30122</v>
+        <v>34298</v>
       </c>
       <c r="G215" s="9">
-        <v>34298</v>
+        <v>38258</v>
       </c>
       <c r="H215" s="9">
-        <v>38258</v>
+        <v>40746</v>
       </c>
       <c r="I215" s="9">
-        <v>40746</v>
+        <v>42640</v>
       </c>
       <c r="J215" s="9">
-        <v>42640</v>
+        <v>49066</v>
       </c>
       <c r="K215" s="9">
-        <v>49066</v>
+        <v>52451</v>
       </c>
       <c r="L215" s="9">
-        <v>52451</v>
+        <v>61693</v>
       </c>
       <c r="M215" s="9">
-        <v>61693</v>
+        <v>60023</v>
       </c>
       <c r="N215" s="9">
-        <v>60023</v>
-      </c>
-    </row>
-    <row r="216" spans="2:14" x14ac:dyDescent="0.25">
+        <v>64948</v>
+      </c>
+    </row>
+    <row r="216" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B216" s="10" t="s">
         <v>41</v>
       </c>
@@ -7849,37 +7849,37 @@
       </c>
       <c r="D216" s="11"/>
       <c r="E216" s="11">
-        <v>78989446</v>
+        <v>88941748</v>
       </c>
       <c r="F216" s="11">
-        <v>88941748</v>
+        <v>95160000</v>
       </c>
       <c r="G216" s="11">
-        <v>95160000</v>
+        <v>95597980</v>
       </c>
       <c r="H216" s="11">
-        <v>95597980</v>
+        <v>105377871</v>
       </c>
       <c r="I216" s="11">
-        <v>105377871</v>
+        <v>143451183</v>
       </c>
       <c r="J216" s="11">
-        <v>143451183</v>
+        <v>141615542</v>
       </c>
       <c r="K216" s="11">
-        <v>141615542</v>
+        <v>153370370</v>
       </c>
       <c r="L216" s="11">
-        <v>153370370</v>
+        <v>198254417</v>
       </c>
       <c r="M216" s="11">
-        <v>198254417</v>
+        <v>326102603</v>
       </c>
       <c r="N216" s="11">
-        <v>326102603</v>
-      </c>
-    </row>
-    <row r="217" spans="2:14" x14ac:dyDescent="0.25">
+        <v>423681188</v>
+      </c>
+    </row>
+    <row r="217" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B217" s="8" t="s">
         <v>42</v>
       </c>
@@ -7888,37 +7888,37 @@
       </c>
       <c r="D217" s="9"/>
       <c r="E217" s="9">
-        <v>64909091</v>
+        <v>68668942</v>
       </c>
       <c r="F217" s="9">
-        <v>68668942</v>
+        <v>58921265</v>
       </c>
       <c r="G217" s="9">
-        <v>58921265</v>
+        <v>56674868</v>
       </c>
       <c r="H217" s="9">
-        <v>56674868</v>
+        <v>105807137</v>
       </c>
       <c r="I217" s="9">
-        <v>105807137</v>
+        <v>118904161</v>
       </c>
       <c r="J217" s="9">
-        <v>118904161</v>
+        <v>128200577</v>
       </c>
       <c r="K217" s="9">
-        <v>128200577</v>
+        <v>136454686</v>
       </c>
       <c r="L217" s="9">
-        <v>136454686</v>
+        <v>138449757</v>
       </c>
       <c r="M217" s="9">
-        <v>138449757</v>
+        <v>151857823</v>
       </c>
       <c r="N217" s="9">
-        <v>151857823</v>
-      </c>
-    </row>
-    <row r="218" spans="2:14" x14ac:dyDescent="0.25">
+        <v>182034028</v>
+      </c>
+    </row>
+    <row r="218" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B218" s="10" t="s">
         <v>43</v>
       </c>
@@ -7927,37 +7927,37 @@
       </c>
       <c r="D218" s="11"/>
       <c r="E218" s="11">
-        <v>149972756</v>
+        <v>191681529</v>
       </c>
       <c r="F218" s="11">
-        <v>191681529</v>
+        <v>286703163</v>
       </c>
       <c r="G218" s="11">
-        <v>286703163</v>
+        <v>250590457</v>
       </c>
       <c r="H218" s="11">
-        <v>250590457</v>
+        <v>270712785</v>
       </c>
       <c r="I218" s="11">
-        <v>270712785</v>
+        <v>312453978</v>
       </c>
       <c r="J218" s="11">
-        <v>312453978</v>
+        <v>413478799</v>
       </c>
       <c r="K218" s="11">
-        <v>413478799</v>
+        <v>427785461</v>
       </c>
       <c r="L218" s="11">
-        <v>427785461</v>
+        <v>463600701</v>
       </c>
       <c r="M218" s="11">
-        <v>463600701</v>
+        <v>518567455</v>
       </c>
       <c r="N218" s="11">
-        <v>518567455</v>
-      </c>
-    </row>
-    <row r="219" spans="2:14" x14ac:dyDescent="0.25">
+        <v>486033762</v>
+      </c>
+    </row>
+    <row r="219" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
@@ -7972,7 +7972,7 @@
       <c r="M219" s="1"/>
       <c r="N219" s="1"/>
     </row>
-    <row r="220" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
@@ -7987,7 +7987,7 @@
       <c r="M220" s="1"/>
       <c r="N220" s="1"/>
     </row>
-    <row r="221" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
@@ -8002,7 +8002,7 @@
       <c r="M221" s="1"/>
       <c r="N221" s="1"/>
     </row>
-    <row r="222" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B222" s="7" t="s">
         <v>57</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
@@ -8054,7 +8054,7 @@
       <c r="M223" s="1"/>
       <c r="N223" s="1"/>
     </row>
-    <row r="224" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B224" s="8" t="s">
         <v>29</v>
       </c>
@@ -8083,17 +8083,17 @@
       <c r="K224" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L224" s="9" t="s">
-        <v>31</v>
+      <c r="L224" s="9">
+        <v>746090909</v>
       </c>
       <c r="M224" s="9">
-        <v>746090909</v>
-      </c>
-      <c r="N224" s="9">
         <v>766031250</v>
       </c>
-    </row>
-    <row r="225" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N224" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="225" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B225" s="10" t="s">
         <v>32</v>
       </c>
@@ -8110,29 +8110,29 @@
       <c r="G225" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H225" s="11" t="s">
-        <v>31</v>
+      <c r="H225" s="11">
+        <v>180769784</v>
       </c>
       <c r="I225" s="11">
-        <v>180769784</v>
+        <v>192906542</v>
       </c>
       <c r="J225" s="11">
-        <v>192906542</v>
+        <v>179928571</v>
       </c>
       <c r="K225" s="11">
-        <v>179928571</v>
+        <v>167186907</v>
       </c>
       <c r="L225" s="11">
-        <v>167186907</v>
+        <v>164034847</v>
       </c>
       <c r="M225" s="11">
-        <v>164034847</v>
-      </c>
-      <c r="N225" s="11">
         <v>163743468</v>
       </c>
-    </row>
-    <row r="226" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N225" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="226" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B226" s="8" t="s">
         <v>33</v>
       </c>
@@ -8149,29 +8149,29 @@
       <c r="G226" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H226" s="9" t="s">
-        <v>31</v>
+      <c r="H226" s="9">
+        <v>400464435</v>
       </c>
       <c r="I226" s="9">
-        <v>400464435</v>
+        <v>421882353</v>
       </c>
       <c r="J226" s="9">
-        <v>421882353</v>
+        <v>424548387</v>
       </c>
       <c r="K226" s="9">
-        <v>424548387</v>
-      </c>
-      <c r="L226" s="9">
         <v>179000000</v>
       </c>
-      <c r="M226" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N226" s="9">
+      <c r="L226" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M226" s="9">
         <v>749714286</v>
       </c>
-    </row>
-    <row r="227" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N226" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="227" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B227" s="10" t="s">
         <v>34</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="228" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B228" s="8" t="s">
         <v>35</v>
       </c>
@@ -8227,12 +8227,12 @@
       <c r="G228" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H228" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I228" s="9">
+      <c r="H228" s="9">
         <v>2117500000</v>
       </c>
+      <c r="I228" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="J228" s="9" t="s">
         <v>31</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="229" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B229" s="10" t="s">
         <v>36</v>
       </c>
@@ -8266,29 +8266,29 @@
       <c r="G229" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H229" s="11" t="s">
-        <v>31</v>
+      <c r="H229" s="11">
+        <v>460450000</v>
       </c>
       <c r="I229" s="11">
-        <v>460450000</v>
+        <v>706957576</v>
       </c>
       <c r="J229" s="11">
-        <v>706957576</v>
+        <v>564488506</v>
       </c>
       <c r="K229" s="11">
-        <v>564488506</v>
+        <v>590325967</v>
       </c>
       <c r="L229" s="11">
-        <v>590325967</v>
+        <v>564241026</v>
       </c>
       <c r="M229" s="11">
-        <v>564241026</v>
+        <v>456303797</v>
       </c>
       <c r="N229" s="11">
-        <v>456303797</v>
-      </c>
-    </row>
-    <row r="230" spans="2:14" x14ac:dyDescent="0.25">
+        <v>664325967</v>
+      </c>
+    </row>
+    <row r="230" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B230" s="8" t="s">
         <v>37</v>
       </c>
@@ -8305,29 +8305,29 @@
       <c r="G230" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H230" s="9" t="s">
-        <v>31</v>
+      <c r="H230" s="9">
+        <v>40164852</v>
       </c>
       <c r="I230" s="9">
-        <v>40164852</v>
+        <v>40750877</v>
       </c>
       <c r="J230" s="9">
-        <v>40750877</v>
+        <v>28000000</v>
       </c>
       <c r="K230" s="9">
-        <v>28000000</v>
+        <v>157203240</v>
       </c>
       <c r="L230" s="9">
-        <v>157203240</v>
+        <v>156246080</v>
       </c>
       <c r="M230" s="9">
-        <v>156246080</v>
+        <v>155400000</v>
       </c>
       <c r="N230" s="9">
-        <v>155400000</v>
-      </c>
-    </row>
-    <row r="231" spans="2:14" x14ac:dyDescent="0.25">
+        <v>141082294</v>
+      </c>
+    </row>
+    <row r="231" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B231" s="10" t="s">
         <v>38</v>
       </c>
@@ -8344,29 +8344,29 @@
       <c r="G231" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H231" s="11" t="s">
-        <v>31</v>
+      <c r="H231" s="11">
+        <v>230250000</v>
       </c>
       <c r="I231" s="11">
-        <v>230250000</v>
-      </c>
-      <c r="J231" s="11">
         <v>190250000</v>
       </c>
-      <c r="K231" s="11" t="s">
-        <v>31</v>
+      <c r="J231" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K231" s="11">
+        <v>311750000</v>
       </c>
       <c r="L231" s="11">
-        <v>311750000</v>
+        <v>437567568</v>
       </c>
       <c r="M231" s="11">
-        <v>437567568</v>
+        <v>445720000</v>
       </c>
       <c r="N231" s="11">
-        <v>445720000</v>
-      </c>
-    </row>
-    <row r="232" spans="2:14" x14ac:dyDescent="0.25">
+        <v>414166667</v>
+      </c>
+    </row>
+    <row r="232" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B232" s="8" t="s">
         <v>39</v>
       </c>
@@ -8383,29 +8383,29 @@
       <c r="G232" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H232" s="9" t="s">
-        <v>31</v>
+      <c r="H232" s="9">
+        <v>33243</v>
       </c>
       <c r="I232" s="9">
-        <v>33243</v>
+        <v>36350</v>
       </c>
       <c r="J232" s="9">
-        <v>36350</v>
+        <v>38025</v>
       </c>
       <c r="K232" s="9">
-        <v>38025</v>
+        <v>40755</v>
       </c>
       <c r="L232" s="9">
-        <v>40755</v>
+        <v>42372</v>
       </c>
       <c r="M232" s="9">
-        <v>42372</v>
+        <v>48838</v>
       </c>
       <c r="N232" s="9">
-        <v>48838</v>
-      </c>
-    </row>
-    <row r="233" spans="2:14" x14ac:dyDescent="0.25">
+        <v>50999</v>
+      </c>
+    </row>
+    <row r="233" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B233" s="10" t="s">
         <v>41</v>
       </c>
@@ -8422,29 +8422,29 @@
       <c r="G233" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H233" s="11" t="s">
-        <v>31</v>
+      <c r="H233" s="11">
+        <v>146000000</v>
       </c>
       <c r="I233" s="11">
-        <v>146000000</v>
+        <v>147589041</v>
       </c>
       <c r="J233" s="11">
-        <v>147589041</v>
+        <v>141108939</v>
       </c>
       <c r="K233" s="11">
-        <v>141108939</v>
+        <v>164487768</v>
       </c>
       <c r="L233" s="11">
-        <v>164487768</v>
+        <v>175085459</v>
       </c>
       <c r="M233" s="11">
-        <v>175085459</v>
+        <v>435785292</v>
       </c>
       <c r="N233" s="11">
-        <v>435785292</v>
-      </c>
-    </row>
-    <row r="234" spans="2:14" x14ac:dyDescent="0.25">
+        <v>413287129</v>
+      </c>
+    </row>
+    <row r="234" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B234" s="8" t="s">
         <v>42</v>
       </c>
@@ -8461,29 +8461,29 @@
       <c r="G234" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H234" s="9" t="s">
-        <v>31</v>
+      <c r="H234" s="9">
+        <v>111607021</v>
       </c>
       <c r="I234" s="9">
-        <v>111607021</v>
+        <v>119042553</v>
       </c>
       <c r="J234" s="9">
-        <v>119042553</v>
+        <v>114636364</v>
       </c>
       <c r="K234" s="9">
-        <v>114636364</v>
+        <v>138121987</v>
       </c>
       <c r="L234" s="9">
-        <v>138121987</v>
+        <v>138245810</v>
       </c>
       <c r="M234" s="9">
-        <v>138245810</v>
+        <v>179608259</v>
       </c>
       <c r="N234" s="9">
-        <v>179608259</v>
-      </c>
-    </row>
-    <row r="235" spans="2:14" x14ac:dyDescent="0.25">
+        <v>183617238</v>
+      </c>
+    </row>
+    <row r="235" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B235" s="10" t="s">
         <v>43</v>
       </c>
@@ -8500,29 +8500,29 @@
       <c r="G235" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H235" s="11" t="s">
-        <v>31</v>
+      <c r="H235" s="11">
+        <v>420698885</v>
       </c>
       <c r="I235" s="11">
-        <v>420698885</v>
+        <v>454967427</v>
       </c>
       <c r="J235" s="11">
-        <v>454967427</v>
+        <v>411507143</v>
       </c>
       <c r="K235" s="11">
-        <v>411507143</v>
+        <v>521615385</v>
       </c>
       <c r="L235" s="11">
-        <v>521615385</v>
+        <v>526775000</v>
       </c>
       <c r="M235" s="11">
-        <v>526775000</v>
+        <v>803035928</v>
       </c>
       <c r="N235" s="11">
-        <v>803035928</v>
-      </c>
-    </row>
-    <row r="236" spans="2:14" x14ac:dyDescent="0.25">
+        <v>495554707</v>
+      </c>
+    </row>
+    <row r="236" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
@@ -8537,7 +8537,7 @@
       <c r="M236" s="1"/>
       <c r="N236" s="1"/>
     </row>
-    <row r="237" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
@@ -8552,7 +8552,7 @@
       <c r="M237" s="1"/>
       <c r="N237" s="1"/>
     </row>
-    <row r="238" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
@@ -8567,7 +8567,7 @@
       <c r="M238" s="1"/>
       <c r="N238" s="1"/>
     </row>
-    <row r="239" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B239" s="7" t="s">
         <v>58</v>
       </c>
@@ -8604,7 +8604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
@@ -8619,7 +8619,7 @@
       <c r="M240" s="1"/>
       <c r="N240" s="1"/>
     </row>
-    <row r="241" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B241" s="8" t="s">
         <v>59</v>
       </c>
@@ -8656,7 +8656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B242" s="10" t="s">
         <v>60</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B243" s="8" t="s">
         <v>61</v>
       </c>
@@ -8730,7 +8730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B244" s="10" t="s">
         <v>62</v>
       </c>
@@ -8767,155 +8767,155 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B245" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C245" s="9"/>
       <c r="D245" s="9"/>
       <c r="E245" s="9">
-        <v>11064</v>
+        <v>8882</v>
       </c>
       <c r="F245" s="9">
-        <v>8882</v>
+        <v>20922</v>
       </c>
       <c r="G245" s="9">
-        <v>20922</v>
+        <v>20877</v>
       </c>
       <c r="H245" s="9">
-        <v>20877</v>
+        <v>12301</v>
       </c>
       <c r="I245" s="9">
-        <v>12301</v>
+        <v>41581</v>
       </c>
       <c r="J245" s="9">
-        <v>41581</v>
+        <v>11233</v>
       </c>
       <c r="K245" s="9">
-        <v>11233</v>
+        <v>20469</v>
       </c>
       <c r="L245" s="9">
-        <v>20469</v>
+        <v>23919</v>
       </c>
       <c r="M245" s="9">
-        <v>23919</v>
+        <v>29355</v>
       </c>
       <c r="N245" s="9">
-        <v>29355</v>
-      </c>
-    </row>
-    <row r="246" spans="2:14" x14ac:dyDescent="0.25">
+        <v>43870</v>
+      </c>
+    </row>
+    <row r="246" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B246" s="10" t="s">
         <v>64</v>
       </c>
       <c r="C246" s="11"/>
       <c r="D246" s="11"/>
       <c r="E246" s="11">
-        <v>4055</v>
+        <v>2036</v>
       </c>
       <c r="F246" s="11">
-        <v>2036</v>
+        <v>3301</v>
       </c>
       <c r="G246" s="11">
-        <v>3301</v>
+        <v>3556</v>
       </c>
       <c r="H246" s="11">
-        <v>3556</v>
+        <v>5489</v>
       </c>
       <c r="I246" s="11">
-        <v>5489</v>
+        <v>7026</v>
       </c>
       <c r="J246" s="11">
-        <v>7026</v>
+        <v>13826</v>
       </c>
       <c r="K246" s="11">
-        <v>13826</v>
+        <v>6335</v>
       </c>
       <c r="L246" s="11">
-        <v>6335</v>
+        <v>9011</v>
       </c>
       <c r="M246" s="11">
-        <v>9011</v>
+        <v>9143</v>
       </c>
       <c r="N246" s="11">
-        <v>9143</v>
-      </c>
-    </row>
-    <row r="247" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9257</v>
+      </c>
+    </row>
+    <row r="247" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B247" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C247" s="9"/>
       <c r="D247" s="9"/>
       <c r="E247" s="9">
-        <v>43338</v>
+        <v>41749</v>
       </c>
       <c r="F247" s="9">
-        <v>41749</v>
+        <v>43123</v>
       </c>
       <c r="G247" s="9">
-        <v>43123</v>
+        <v>44007</v>
       </c>
       <c r="H247" s="9">
-        <v>44007</v>
+        <v>44536</v>
       </c>
       <c r="I247" s="9">
-        <v>44536</v>
+        <v>43361</v>
       </c>
       <c r="J247" s="9">
-        <v>43361</v>
+        <v>44515</v>
       </c>
       <c r="K247" s="9">
-        <v>44515</v>
+        <v>47856</v>
       </c>
       <c r="L247" s="9">
-        <v>47856</v>
+        <v>47888</v>
       </c>
       <c r="M247" s="9">
-        <v>47888</v>
+        <v>46951</v>
       </c>
       <c r="N247" s="9">
-        <v>46951</v>
-      </c>
-    </row>
-    <row r="248" spans="2:14" x14ac:dyDescent="0.25">
+        <v>49873</v>
+      </c>
+    </row>
+    <row r="248" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B248" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C248" s="11"/>
       <c r="D248" s="11"/>
       <c r="E248" s="11">
-        <v>56933</v>
+        <v>46004</v>
       </c>
       <c r="F248" s="11">
-        <v>46004</v>
+        <v>52809</v>
       </c>
       <c r="G248" s="11">
-        <v>52809</v>
+        <v>67742</v>
       </c>
       <c r="H248" s="11">
-        <v>67742</v>
+        <v>75009</v>
       </c>
       <c r="I248" s="11">
-        <v>75009</v>
+        <v>99267</v>
       </c>
       <c r="J248" s="11">
-        <v>99267</v>
+        <v>94672</v>
       </c>
       <c r="K248" s="11">
-        <v>94672</v>
+        <v>121932</v>
       </c>
       <c r="L248" s="11">
-        <v>121932</v>
+        <v>137828</v>
       </c>
       <c r="M248" s="11">
-        <v>137828</v>
+        <v>131168</v>
       </c>
       <c r="N248" s="11">
-        <v>131168</v>
-      </c>
-    </row>
-    <row r="249" spans="2:14" x14ac:dyDescent="0.25">
+        <v>130977</v>
+      </c>
+    </row>
+    <row r="249" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B249" s="8" t="s">
         <v>67</v>
       </c>
@@ -8952,81 +8952,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B250" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C250" s="11"/>
       <c r="D250" s="11"/>
       <c r="E250" s="11">
-        <v>5420</v>
+        <v>8439</v>
       </c>
       <c r="F250" s="11">
-        <v>8439</v>
+        <v>7695</v>
       </c>
       <c r="G250" s="11">
-        <v>7695</v>
+        <v>7551</v>
       </c>
       <c r="H250" s="11">
-        <v>7551</v>
+        <v>12827</v>
       </c>
       <c r="I250" s="11">
-        <v>12827</v>
+        <v>11209</v>
       </c>
       <c r="J250" s="11">
-        <v>11209</v>
+        <v>22630</v>
       </c>
       <c r="K250" s="11">
-        <v>22630</v>
+        <v>11468</v>
       </c>
       <c r="L250" s="11">
-        <v>11468</v>
+        <v>23036</v>
       </c>
       <c r="M250" s="11">
-        <v>23036</v>
+        <v>22119</v>
       </c>
       <c r="N250" s="11">
-        <v>22119</v>
-      </c>
-    </row>
-    <row r="251" spans="2:14" x14ac:dyDescent="0.25">
+        <v>26102</v>
+      </c>
+    </row>
+    <row r="251" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B251" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C251" s="15"/>
       <c r="D251" s="15"/>
       <c r="E251" s="15">
-        <v>120810</v>
+        <v>107110</v>
       </c>
       <c r="F251" s="15">
-        <v>107110</v>
+        <v>127850</v>
       </c>
       <c r="G251" s="15">
-        <v>127850</v>
+        <v>143733</v>
       </c>
       <c r="H251" s="15">
-        <v>143733</v>
+        <v>150162</v>
       </c>
       <c r="I251" s="15">
-        <v>150162</v>
+        <v>202444</v>
       </c>
       <c r="J251" s="15">
-        <v>202444</v>
+        <v>186876</v>
       </c>
       <c r="K251" s="15">
-        <v>186876</v>
+        <v>208060</v>
       </c>
       <c r="L251" s="15">
-        <v>208060</v>
+        <v>241682</v>
       </c>
       <c r="M251" s="15">
-        <v>241682</v>
+        <v>238736</v>
       </c>
       <c r="N251" s="15">
-        <v>238736</v>
-      </c>
-    </row>
-    <row r="252" spans="2:14" x14ac:dyDescent="0.25">
+        <v>260079</v>
+      </c>
+    </row>
+    <row r="252" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
@@ -9041,7 +9041,7 @@
       <c r="M252" s="1"/>
       <c r="N252" s="1"/>
     </row>
-    <row r="253" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
@@ -9056,7 +9056,7 @@
       <c r="M253" s="1"/>
       <c r="N253" s="1"/>
     </row>
-    <row r="254" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
@@ -9071,7 +9071,7 @@
       <c r="M254" s="1"/>
       <c r="N254" s="1"/>
     </row>
-    <row r="255" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B255" s="7" t="s">
         <v>69</v>
       </c>
@@ -9088,7 +9088,7 @@
       <c r="M255" s="1"/>
       <c r="N255" s="1"/>
     </row>
-    <row r="256" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
@@ -9103,7 +9103,7 @@
       <c r="M256" s="1"/>
       <c r="N256" s="1"/>
     </row>
-    <row r="257" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B257" s="8" t="s">
         <v>70</v>
       </c>
@@ -9122,7 +9122,7 @@
       <c r="M257" s="1"/>
       <c r="N257" s="1"/>
     </row>
-    <row r="258" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B258" s="10" t="s">
         <v>72</v>
       </c>
@@ -9133,7 +9133,7 @@
       <c r="E258" s="11"/>
       <c r="F258" s="11"/>
     </row>
-    <row r="259" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B259" s="8" t="s">
         <v>74</v>
       </c>
@@ -9144,7 +9144,7 @@
       <c r="E259" s="9"/>
       <c r="F259" s="9"/>
     </row>
-    <row r="260" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B260" s="10" t="s">
         <v>76</v>
       </c>
@@ -9155,7 +9155,7 @@
       <c r="E260" s="11"/>
       <c r="F260" s="11"/>
     </row>
-    <row r="261" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B261" s="8" t="s">
         <v>78</v>
       </c>
@@ -9166,7 +9166,7 @@
       <c r="E261" s="9"/>
       <c r="F261" s="9"/>
     </row>
-    <row r="262" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B262" s="10" t="s">
         <v>80</v>
       </c>
@@ -9177,7 +9177,7 @@
       <c r="E262" s="11"/>
       <c r="F262" s="11"/>
     </row>
-    <row r="263" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B263" s="8" t="s">
         <v>82</v>
       </c>
@@ -9188,7 +9188,7 @@
       <c r="E263" s="9"/>
       <c r="F263" s="9"/>
     </row>
-    <row r="264" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B264" s="10" t="s">
         <v>84</v>
       </c>
@@ -9199,7 +9199,7 @@
       <c r="E264" s="11"/>
       <c r="F264" s="11"/>
     </row>
-    <row r="265" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B265" s="8" t="s">
         <v>86</v>
       </c>
@@ -9210,7 +9210,7 @@
       <c r="E265" s="9"/>
       <c r="F265" s="9"/>
     </row>
-    <row r="266" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B266" s="10" t="s">
         <v>88</v>
       </c>
@@ -9221,7 +9221,7 @@
       <c r="E266" s="11"/>
       <c r="F266" s="11"/>
     </row>
-    <row r="267" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B267" s="8" t="s">
         <v>90</v>
       </c>
@@ -9232,7 +9232,7 @@
       <c r="E267" s="9"/>
       <c r="F267" s="9"/>
     </row>
-    <row r="268" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B268" s="10" t="s">
         <v>76</v>
       </c>
